--- a/CUDA/Resources/Jeszcze do zrobienia.xlsx
+++ b/CUDA/Resources/Jeszcze do zrobienia.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Rzeczy do zrobienia jeszcze (40 dni od 21.04.2010):</t>
   </si>
@@ -897,6 +897,9 @@
   </si>
   <si>
     <t>Dni</t>
+  </si>
+  <si>
+    <t>c. Popraw linki do innych rozdziałów (wstaw linki z nazwami rozdziałów)</t>
   </si>
 </sst>
 </file>
@@ -990,7 +993,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -998,9 +1001,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1038,7 +1041,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1108,7 +1111,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1282,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:K49"/>
+  <dimension ref="C5:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1298,7 +1301,7 @@
     <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:11" ht="45">
+    <row r="5" spans="3:11" ht="30">
       <c r="D5" s="8" t="s">
         <v>40</v>
       </c>
@@ -1333,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <f>SUM(E9:E25)</f>
+        <f>SUM(E9:E26)</f>
         <v>30.6</v>
       </c>
     </row>
@@ -1361,7 +1364,7 @@
         <v>0.5</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10:E47" si="0">IF(D10 = "", "", 2*D10)</f>
+        <f t="shared" ref="E10:E48" si="0">IF(D10 = "", "", 2*D10)</f>
         <v>1</v>
       </c>
       <c r="H10">
@@ -1378,7 +1381,7 @@
         <v/>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H49" si="1">H10+IF(E11 = "", 0, E11)</f>
+        <f t="shared" ref="H11:H50" si="1">H10+IF(E11 = "", 0, E11)</f>
         <v>1.6</v>
       </c>
     </row>
@@ -1576,56 +1579,52 @@
       </c>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="4"/>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C25" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
         <v>30.6</v>
       </c>
     </row>
-    <row r="26" spans="3:8" ht="18.75">
-      <c r="C26" s="1" t="s">
+    <row r="26" spans="3:8">
+      <c r="C26" s="4"/>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="18.75">
+      <c r="C27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F26">
-        <f>SUM(E27:E41)</f>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F27">
+        <f>SUM(E28:E42)</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="H26">
+      <c r="H27">
         <f t="shared" si="1"/>
         <v>30.6</v>
       </c>
     </row>
-    <row r="27" spans="3:8">
-      <c r="C27" s="5" t="s">
+    <row r="28" spans="3:8">
+      <c r="C28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>0.3</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <f t="shared" si="0"/>
         <v>0.6</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="1"/>
-        <v>31.200000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8">
-      <c r="C28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
@@ -1634,7 +1633,7 @@
     </row>
     <row r="29" spans="3:8">
       <c r="C29" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
@@ -1647,7 +1646,7 @@
     </row>
     <row r="30" spans="3:8">
       <c r="C30" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
@@ -1660,40 +1659,40 @@
     </row>
     <row r="31" spans="3:8">
       <c r="C31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>31.200000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H31">
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H32">
         <f t="shared" si="1"/>
         <v>31.200000000000003</v>
       </c>
     </row>
-    <row r="32" spans="3:8">
-      <c r="C32" s="5" t="s">
+    <row r="33" spans="3:8">
+      <c r="C33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>0.5</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <f t="shared" si="0"/>
         <v>1</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="1"/>
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8">
-      <c r="C33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
       </c>
       <c r="H33">
         <f t="shared" si="1"/>
@@ -1702,7 +1701,7 @@
     </row>
     <row r="34" spans="3:8">
       <c r="C34" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
@@ -1715,7 +1714,7 @@
     </row>
     <row r="35" spans="3:8">
       <c r="C35" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
@@ -1728,7 +1727,7 @@
     </row>
     <row r="36" spans="3:8">
       <c r="C36" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
@@ -1741,7 +1740,7 @@
     </row>
     <row r="37" spans="3:8">
       <c r="C37" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
@@ -1754,7 +1753,7 @@
     </row>
     <row r="38" spans="3:8">
       <c r="C38" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
@@ -1767,150 +1766,163 @@
     </row>
     <row r="39" spans="3:8">
       <c r="C39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8">
+      <c r="C40" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H39">
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H40">
         <f t="shared" si="1"/>
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="40" spans="3:8">
-      <c r="C40" s="5" t="s">
+    <row r="41" spans="3:8">
+      <c r="C41" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <v>0.4</v>
       </c>
-      <c r="E40">
+      <c r="E41">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="H40">
+      <c r="H41">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="3:8">
-      <c r="C41" s="4"/>
-      <c r="E41" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H41">
+    <row r="42" spans="3:8">
+      <c r="C42" s="4"/>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H42">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="3:8" ht="18.75">
-      <c r="C42" s="1" t="s">
+    <row r="43" spans="3:8" ht="18.75">
+      <c r="C43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F42">
-        <f>SUM(E43:E48)</f>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F43">
+        <f>SUM(E44:E49)</f>
         <v>4.2</v>
       </c>
-      <c r="H42">
+      <c r="H43">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="3:8">
-      <c r="C43" s="5" t="s">
+    <row r="44" spans="3:8">
+      <c r="C44" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <v>0.6</v>
       </c>
-      <c r="E43">
+      <c r="E44">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="H43">
+      <c r="H44">
         <f t="shared" si="1"/>
         <v>34.200000000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="3:8">
-      <c r="C44" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44">
-        <v>0.4</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="1"/>
-        <v>35</v>
       </c>
     </row>
     <row r="45" spans="3:8">
       <c r="C45" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D45">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H45">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="3:8">
       <c r="C46" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D46">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H46">
         <f t="shared" si="1"/>
-        <v>36.200000000000003</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="3:8">
       <c r="C47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47">
+        <v>0.1</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8">
+      <c r="C48" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D47">
+      <c r="D48">
         <v>0.5</v>
       </c>
-      <c r="E47">
+      <c r="E48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H47">
+      <c r="H48">
         <f t="shared" si="1"/>
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="48" spans="3:8">
-      <c r="C48" s="4"/>
-      <c r="H48">
+    <row r="49" spans="3:8">
+      <c r="C49" s="4"/>
+      <c r="H49">
         <f t="shared" si="1"/>
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="49" spans="8:8">
-      <c r="H49">
+    <row r="50" spans="3:8">
+      <c r="H50">
         <f t="shared" si="1"/>
         <v>37.200000000000003</v>
       </c>

--- a/CUDA/Resources/Jeszcze do zrobienia.xlsx
+++ b/CUDA/Resources/Jeszcze do zrobienia.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Rzeczy do zrobienia jeszcze (40 dni od 21.04.2010):</t>
   </si>
@@ -900,6 +900,9 @@
   </si>
   <si>
     <t>c. Popraw linki do innych rozdziałów (wstaw linki z nazwami rozdziałów)</t>
+  </si>
+  <si>
+    <t>d. Sprawdz, czy wszystkie elementy bibliograficzne typu pdf, maja w odnosciku numer strony</t>
   </si>
 </sst>
 </file>
@@ -1285,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:K50"/>
+  <dimension ref="C5:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1336,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <f>SUM(E9:E26)</f>
+        <f>SUM(E9:E27)</f>
         <v>30.6</v>
       </c>
     </row>
@@ -1364,7 +1367,7 @@
         <v>0.5</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10:E48" si="0">IF(D10 = "", "", 2*D10)</f>
+        <f t="shared" ref="E10:E49" si="0">IF(D10 = "", "", 2*D10)</f>
         <v>1</v>
       </c>
       <c r="H10">
@@ -1381,7 +1384,7 @@
         <v/>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H50" si="1">H10+IF(E11 = "", 0, E11)</f>
+        <f t="shared" ref="H11:H51" si="1">H10+IF(E11 = "", 0, E11)</f>
         <v>1.6</v>
       </c>
     </row>
@@ -1588,56 +1591,48 @@
       </c>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="4"/>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H26">
-        <f t="shared" si="1"/>
+      <c r="C26" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="4"/>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H27">
+        <f>H25+IF(E27 = "", 0, E27)</f>
         <v>30.6</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="18.75">
-      <c r="C27" s="1" t="s">
+    <row r="28" spans="3:8" ht="18.75">
+      <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F27">
-        <f>SUM(E28:E42)</f>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F28">
+        <f>SUM(E29:E43)</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="H27">
+      <c r="H28">
         <f t="shared" si="1"/>
         <v>30.6</v>
       </c>
     </row>
-    <row r="28" spans="3:8">
-      <c r="C28" s="5" t="s">
+    <row r="29" spans="3:8">
+      <c r="C29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>0.3</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <f t="shared" si="0"/>
         <v>0.6</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="1"/>
-        <v>31.200000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8">
-      <c r="C29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v/>
       </c>
       <c r="H29">
         <f t="shared" si="1"/>
@@ -1646,7 +1641,7 @@
     </row>
     <row r="30" spans="3:8">
       <c r="C30" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
@@ -1659,7 +1654,7 @@
     </row>
     <row r="31" spans="3:8">
       <c r="C31" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
@@ -1672,40 +1667,40 @@
     </row>
     <row r="32" spans="3:8">
       <c r="C32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>31.200000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H32">
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H33">
         <f t="shared" si="1"/>
         <v>31.200000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:8">
-      <c r="C33" s="5" t="s">
+    <row r="34" spans="3:8">
+      <c r="C34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>0.5</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <f t="shared" si="0"/>
         <v>1</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="1"/>
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8">
-      <c r="C34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
@@ -1714,7 +1709,7 @@
     </row>
     <row r="35" spans="3:8">
       <c r="C35" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
@@ -1727,7 +1722,7 @@
     </row>
     <row r="36" spans="3:8">
       <c r="C36" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
@@ -1740,7 +1735,7 @@
     </row>
     <row r="37" spans="3:8">
       <c r="C37" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
@@ -1753,7 +1748,7 @@
     </row>
     <row r="38" spans="3:8">
       <c r="C38" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
@@ -1766,7 +1761,7 @@
     </row>
     <row r="39" spans="3:8">
       <c r="C39" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
@@ -1779,150 +1774,163 @@
     </row>
     <row r="40" spans="3:8">
       <c r="C40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8">
+      <c r="C41" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H40">
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H41">
         <f t="shared" si="1"/>
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="41" spans="3:8">
-      <c r="C41" s="5" t="s">
+    <row r="42" spans="3:8">
+      <c r="C42" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <v>0.4</v>
       </c>
-      <c r="E41">
+      <c r="E42">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="H41">
+      <c r="H42">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="3:8">
-      <c r="C42" s="4"/>
-      <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H42">
+    <row r="43" spans="3:8">
+      <c r="C43" s="4"/>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H43">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="3:8" ht="18.75">
-      <c r="C43" s="1" t="s">
+    <row r="44" spans="3:8" ht="18.75">
+      <c r="C44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E43" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F43">
-        <f>SUM(E44:E49)</f>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F44">
+        <f>SUM(E45:E50)</f>
         <v>4.2</v>
       </c>
-      <c r="H43">
+      <c r="H44">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="3:8">
-      <c r="C44" s="5" t="s">
+    <row r="45" spans="3:8">
+      <c r="C45" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <v>0.6</v>
       </c>
-      <c r="E44">
+      <c r="E45">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="H44">
+      <c r="H45">
         <f t="shared" si="1"/>
         <v>34.200000000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8">
-      <c r="C45" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45">
-        <v>0.4</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="1"/>
-        <v>35</v>
       </c>
     </row>
     <row r="46" spans="3:8">
       <c r="C46" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D46">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H46">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="3:8">
       <c r="C47" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D47">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H47">
         <f t="shared" si="1"/>
-        <v>36.200000000000003</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="3:8">
       <c r="C48" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48">
+        <v>0.1</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8">
+      <c r="C49" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <v>0.5</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H48">
+      <c r="H49">
         <f t="shared" si="1"/>
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="49" spans="3:8">
-      <c r="C49" s="4"/>
-      <c r="H49">
+    <row r="50" spans="3:8">
+      <c r="C50" s="4"/>
+      <c r="H50">
         <f t="shared" si="1"/>
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="50" spans="3:8">
-      <c r="H50">
+    <row r="51" spans="3:8">
+      <c r="H51">
         <f t="shared" si="1"/>
         <v>37.200000000000003</v>
       </c>

--- a/CUDA/Resources/Jeszcze do zrobienia.xlsx
+++ b/CUDA/Resources/Jeszcze do zrobienia.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Rzeczy do zrobienia jeszcze (40 dni od 21.04.2010):</t>
   </si>
@@ -903,6 +903,16 @@
   </si>
   <si>
     <t>d. Sprawdz, czy wszystkie elementy bibliograficzne typu pdf, maja w odnosciku numer strony</t>
+  </si>
+  <si>
+    <t>21.04</t>
+  </si>
+  <si>
+    <t>22.04</t>
+  </si>
+  <si>
+    <t>b. Jaka ma być bibliografia - jak zrobić, żeby odwołania były z nawiasami kwadratowymi. 
+Co, jeśli jeden autor z kilkoma utworami (Np.. NVIDIA)? Czy Ustawić, żeby wyśwqietlało tytuł?</t>
   </si>
 </sst>
 </file>
@@ -974,7 +984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -993,6 +1003,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="10"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1288,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:K51"/>
+  <dimension ref="C5:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1339,7 +1352,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <f>SUM(E9:E27)</f>
+        <f>SUM(E9:E29)</f>
         <v>30.6</v>
       </c>
     </row>
@@ -1358,6 +1371,12 @@
         <f>E9</f>
         <v>0.6</v>
       </c>
+      <c r="J9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="3:11">
       <c r="C10" s="3" t="s">
@@ -1367,13 +1386,19 @@
         <v>0.5</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10:E49" si="0">IF(D10 = "", "", 2*D10)</f>
+        <f t="shared" ref="E10:E51" si="0">IF(D10 = "", "", 2*D10)</f>
         <v>1</v>
       </c>
       <c r="H10">
         <f>H9+IF(E10 = "", 0, E10)</f>
         <v>1.6</v>
       </c>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="3:11">
       <c r="C11" s="5" t="s">
@@ -1384,7 +1409,7 @@
         <v/>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H51" si="1">H10+IF(E11 = "", 0, E11)</f>
+        <f t="shared" ref="H11:H53" si="1">H10+IF(E11 = "", 0, E11)</f>
         <v>1.6</v>
       </c>
     </row>
@@ -1449,132 +1474,114 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="16" spans="3:11">
-      <c r="C16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>14.6</v>
+    <row r="16" spans="3:11" ht="30">
+      <c r="C16" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>14.6</v>
-      </c>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <f>H15+IF(E18 = "", 0, E18)</f>
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <v>1.5</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H18">
+      <c r="H20">
         <f t="shared" si="1"/>
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="19" spans="3:8">
-      <c r="C19" s="5" t="s">
+    <row r="21" spans="3:8">
+      <c r="C21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H19">
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H21">
         <f t="shared" si="1"/>
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="20" spans="3:8">
-      <c r="C20" s="7" t="s">
+    <row r="22" spans="3:8">
+      <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D20">
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="E20">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H20">
+      <c r="H22">
         <f t="shared" si="1"/>
         <v>23.6</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8">
-      <c r="C21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="1"/>
-        <v>27.6</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8">
-      <c r="C22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22">
-        <v>1.5</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>30.6</v>
       </c>
     </row>
     <row r="23" spans="3:8">
       <c r="C23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>30.6</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>1.5</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
@@ -1583,7 +1590,11 @@
     </row>
     <row r="25" spans="3:8">
       <c r="C25" s="7" t="s">
-        <v>46</v>
+        <v>7</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
@@ -1592,73 +1603,69 @@
     </row>
     <row r="26" spans="3:8">
       <c r="C26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="3:8">
-      <c r="C27" s="4"/>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H27">
-        <f>H25+IF(E27 = "", 0, E27)</f>
+    <row r="29" spans="3:8">
+      <c r="C29" s="4"/>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H29">
+        <f>H27+IF(E29 = "", 0, E29)</f>
         <v>30.6</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="18.75">
-      <c r="C28" s="1" t="s">
+    <row r="30" spans="3:8" ht="18.75">
+      <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F28">
-        <f>SUM(E29:E43)</f>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F30">
+        <f>SUM(E31:E45)</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="H28">
+      <c r="H30">
         <f t="shared" si="1"/>
         <v>30.6</v>
       </c>
     </row>
-    <row r="29" spans="3:8">
-      <c r="C29" s="5" t="s">
+    <row r="31" spans="3:8">
+      <c r="C31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.3</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <f t="shared" si="0"/>
         <v>0.6</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="1"/>
-        <v>31.200000000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8">
-      <c r="C30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H30">
-        <f t="shared" si="1"/>
-        <v>31.200000000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8">
-      <c r="C31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
       </c>
       <c r="H31">
         <f t="shared" si="1"/>
@@ -1667,7 +1674,7 @@
     </row>
     <row r="32" spans="3:8">
       <c r="C32" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
@@ -1680,7 +1687,7 @@
     </row>
     <row r="33" spans="3:8">
       <c r="C33" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
@@ -1692,24 +1699,21 @@
       </c>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34">
-        <v>0.5</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="C34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
-        <v>32.200000000000003</v>
+        <v>31.200000000000003</v>
       </c>
     </row>
     <row r="35" spans="3:8">
       <c r="C35" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
@@ -1717,16 +1721,19 @@
       </c>
       <c r="H35">
         <f t="shared" si="1"/>
-        <v>32.200000000000003</v>
+        <v>31.200000000000003</v>
       </c>
     </row>
     <row r="36" spans="3:8">
-      <c r="C36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36">
+        <v>0.5</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H36">
         <f t="shared" si="1"/>
@@ -1735,7 +1742,7 @@
     </row>
     <row r="37" spans="3:8">
       <c r="C37" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
@@ -1748,7 +1755,7 @@
     </row>
     <row r="38" spans="3:8">
       <c r="C38" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
@@ -1761,7 +1768,7 @@
     </row>
     <row r="39" spans="3:8">
       <c r="C39" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
@@ -1774,7 +1781,7 @@
     </row>
     <row r="40" spans="3:8">
       <c r="C40" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
@@ -1787,128 +1794,122 @@
     </row>
     <row r="41" spans="3:8">
       <c r="C41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8">
+      <c r="C42" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8">
+      <c r="C43" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E41" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H41">
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H43">
         <f t="shared" si="1"/>
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="42" spans="3:8">
-      <c r="C42" s="5" t="s">
+    <row r="44" spans="3:8">
+      <c r="C44" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D42">
+      <c r="D44">
         <v>0.4</v>
       </c>
-      <c r="E42">
+      <c r="E44">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="H42">
+      <c r="H44">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="3:8">
-      <c r="C43" s="4"/>
-      <c r="E43" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H43">
+    <row r="45" spans="3:8">
+      <c r="C45" s="4"/>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H45">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="3:8" ht="18.75">
-      <c r="C44" s="1" t="s">
+    <row r="46" spans="3:8" ht="18.75">
+      <c r="C46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F44">
-        <f>SUM(E45:E50)</f>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F46">
+        <f>SUM(E47:E52)</f>
         <v>4.2</v>
       </c>
-      <c r="H44">
+      <c r="H46">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="3:8">
-      <c r="C45" s="5" t="s">
+    <row r="47" spans="3:8">
+      <c r="C47" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D45">
+      <c r="D47">
         <v>0.6</v>
       </c>
-      <c r="E45">
+      <c r="E47">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="H45">
+      <c r="H47">
         <f t="shared" si="1"/>
         <v>34.200000000000003</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8">
-      <c r="C46" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46">
-        <v>0.4</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="3:8">
-      <c r="C47" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47">
-        <v>0.5</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="1"/>
-        <v>36</v>
       </c>
     </row>
     <row r="48" spans="3:8">
       <c r="C48" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D48">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H48">
         <f t="shared" si="1"/>
-        <v>36.200000000000003</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="3:8">
       <c r="C49" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D49">
         <v>0.5</v>
@@ -1919,18 +1920,50 @@
       </c>
       <c r="H49">
         <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8">
+      <c r="C50" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50">
+        <v>0.1</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8">
+      <c r="C51" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51">
+        <v>0.5</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="50" spans="3:8">
-      <c r="C50" s="4"/>
-      <c r="H50">
+    <row r="52" spans="3:8">
+      <c r="C52" s="4"/>
+      <c r="H52">
         <f t="shared" si="1"/>
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="51" spans="3:8">
-      <c r="H51">
+    <row r="53" spans="3:8">
+      <c r="H53">
         <f t="shared" si="1"/>
         <v>37.200000000000003</v>
       </c>

--- a/CUDA/Resources/Jeszcze do zrobienia.xlsx
+++ b/CUDA/Resources/Jeszcze do zrobienia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="24780" windowHeight="11895"/>
+    <workbookView xWindow="2430" yWindow="180" windowWidth="14310" windowHeight="11895"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Rzeczy do zrobienia jeszcze (40 dni od 21.04.2010):</t>
   </si>
@@ -913,13 +913,87 @@
   <si>
     <t>b. Jaka ma być bibliografia - jak zrobić, żeby odwołania były z nawiasami kwadratowymi. 
 Co, jeśli jeden autor z kilkoma utworami (Np.. NVIDIA)? Czy Ustawić, żeby wyśwqietlało tytuł?</t>
+  </si>
+  <si>
+    <t>Podpisy tabel i rysunków - Verdana 9pkt. Pogrubiony.</t>
+  </si>
+  <si>
+    <t>Podpisy rysunków - razem z niewidzialną tabelą:
+Rysunek 1. Myślący ludzik (styl taki, że jest dodawane do spisu ilustracji)
+Źródło: Microsoft Clip Gallery (inny styl)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Podpisy tabel: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nad tabelą: Tabela 1. Parametry XXX</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pod tabelą: Źródło: Coś tam</t>
+    </r>
+  </si>
+  <si>
+    <t>Podpisy wzorów matematycznych - opisane są tam</t>
+  </si>
+  <si>
+    <t>Najważniejszy jest wstęp i zakończenie - ważne żeby tam pokazać, że moja praca jest dobra.</t>
+  </si>
+  <si>
+    <t>Wstęp powinien się kończyć otwartą kwestią, która jest rozwiązana w toku dalszych praca nad tematem, co zostanie opisane w kolejnych częściach pracy.</t>
+  </si>
+  <si>
+    <t>Na początku każdego rozdziału dodać kilka zdań wprowadzających.</t>
+  </si>
+  <si>
+    <t>W zakończeniu przytacza się jeszcze raz cel pracy (ogólnie jest więcej rzeczy opisanych - przeczytaj!)</t>
+  </si>
+  <si>
+    <t>c. Gdzie spis ilustracji/tabel?</t>
+  </si>
+  <si>
+    <t>d. Nie ma być tezy? W dokumencie teza jest zalecana.</t>
+  </si>
+  <si>
+    <t>e. Czy w tabelach jest taka sama wielkość czcionki jak gdzie indziej? Czy z wyjustowaniem?</t>
+  </si>
+  <si>
+    <t>a. Zapytaj czy podpisy tabel i rysunków są "pod" czy "nad".</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -963,6 +1037,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -984,7 +1066,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1007,9 +1089,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="10"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="10"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1017,9 +1102,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1057,7 +1142,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1127,7 +1212,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1301,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:K53"/>
+  <dimension ref="C5:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1352,7 +1437,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <f>SUM(E9:E29)</f>
+        <f>SUM(E9:E43)</f>
         <v>30.6</v>
       </c>
     </row>
@@ -1379,370 +1464,278 @@
       </c>
     </row>
     <row r="10" spans="3:11">
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" ht="60">
+      <c r="C11" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" ht="60">
+      <c r="C12" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11">
+      <c r="C13" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11">
+      <c r="C14" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" ht="30">
+      <c r="C15" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11">
+      <c r="C16" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11">
+      <c r="C17" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11">
+      <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D10">
+      <c r="D18">
         <v>0.5</v>
       </c>
-      <c r="E10">
-        <f t="shared" ref="E10:E51" si="0">IF(D10 = "", "", 2*D10)</f>
+      <c r="E18">
+        <f t="shared" ref="E18:E65" si="0">IF(D18 = "", "", 2*D18)</f>
         <v>1</v>
       </c>
-      <c r="H10">
-        <f>H9+IF(E10 = "", 0, E10)</f>
+      <c r="H18">
+        <f>H9+IF(E18 = "", 0, E18)</f>
         <v>1.6</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J18" t="s">
         <v>49</v>
       </c>
-      <c r="K10">
+      <c r="K18">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:11">
-      <c r="C11" s="5" t="s">
+    <row r="19" spans="3:11">
+      <c r="C19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H11">
-        <f t="shared" ref="H11:H53" si="1">H10+IF(E11 = "", 0, E11)</f>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H19">
+        <f>H18+IF(E19 = "", 0, E19)</f>
         <v>1.6</v>
       </c>
     </row>
-    <row r="12" spans="3:11">
-      <c r="C12" s="6" t="s">
+    <row r="20" spans="3:11">
+      <c r="C20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D12">
+      <c r="D20">
         <v>0.5</v>
       </c>
-      <c r="E12">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
+      <c r="H20">
+        <f t="shared" ref="H20:H67" si="1">H19+IF(E20 = "", 0, E20)</f>
         <v>2.6</v>
       </c>
     </row>
-    <row r="13" spans="3:11">
-      <c r="C13" s="6" t="s">
+    <row r="21" spans="3:11">
+      <c r="C21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D13">
+      <c r="D21">
         <v>2</v>
       </c>
-      <c r="E13">
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H13">
+      <c r="H21">
         <f t="shared" si="1"/>
         <v>6.6</v>
       </c>
     </row>
-    <row r="14" spans="3:11">
-      <c r="C14" s="5" t="s">
+    <row r="22" spans="3:11">
+      <c r="C22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D14">
+      <c r="D22">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H14">
+      <c r="H22">
         <f t="shared" si="1"/>
         <v>8.6</v>
       </c>
     </row>
-    <row r="15" spans="3:11">
-      <c r="C15" s="7" t="s">
+    <row r="23" spans="3:11">
+      <c r="C23" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11">
+      <c r="C24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H24">
+        <f>H22+IF(E24 = "", 0, E24)</f>
         <v>8.6</v>
       </c>
     </row>
-    <row r="16" spans="3:11" ht="30">
-      <c r="C16" s="9" t="s">
+    <row r="25" spans="3:11" ht="30">
+      <c r="C25" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="3:8">
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="3:8">
-      <c r="C18" s="5" t="s">
+    <row r="26" spans="3:11">
+      <c r="C26" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11">
+      <c r="C27" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11">
+      <c r="C28" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11">
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="3:11">
+      <c r="C30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D18">
+      <c r="D30">
         <v>3</v>
       </c>
-      <c r="E18">
+      <c r="E30">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H18">
-        <f>H15+IF(E18 = "", 0, E18)</f>
+      <c r="H30">
+        <f>H24+IF(E30 = "", 0, E30)</f>
         <v>14.6</v>
       </c>
     </row>
-    <row r="19" spans="3:8">
-      <c r="C19" s="7" t="s">
+    <row r="31" spans="3:11">
+      <c r="C31" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H19">
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H31">
         <f t="shared" si="1"/>
         <v>14.6</v>
       </c>
     </row>
-    <row r="20" spans="3:8">
-      <c r="C20" s="5" t="s">
+    <row r="32" spans="3:11">
+      <c r="C32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D20">
+      <c r="D32">
         <v>1.5</v>
       </c>
-      <c r="E20">
+      <c r="E32">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H20">
+      <c r="H32">
         <f t="shared" si="1"/>
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="21" spans="3:8">
-      <c r="C21" s="5" t="s">
+    <row r="33" spans="3:8">
+      <c r="C33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H21">
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H33">
         <f t="shared" si="1"/>
         <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8">
-      <c r="C22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>23.6</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8">
-      <c r="C23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>27.6</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8">
-      <c r="C24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24">
-        <v>1.5</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="1"/>
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8">
-      <c r="C25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8">
-      <c r="C26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H26">
-        <f t="shared" si="1"/>
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8">
-      <c r="C27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="1"/>
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8">
-      <c r="C28" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8">
-      <c r="C29" s="4"/>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H29">
-        <f>H27+IF(E29 = "", 0, E29)</f>
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="18.75">
-      <c r="C30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F30">
-        <f>SUM(E31:E45)</f>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="1"/>
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8">
-      <c r="C31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31">
-        <v>0.3</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="1"/>
-        <v>31.200000000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8">
-      <c r="C32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H32">
-        <f t="shared" si="1"/>
-        <v>31.200000000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8">
-      <c r="C33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H33">
-        <f t="shared" si="1"/>
-        <v>31.200000000000003</v>
       </c>
     </row>
     <row r="34" spans="3:8">
       <c r="C34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>29</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
-        <v>31.200000000000003</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="35" spans="3:8">
       <c r="C35" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="H35">
         <f t="shared" si="1"/>
-        <v>31.200000000000003</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="36" spans="3:8">
       <c r="C36" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D36">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H36">
         <f t="shared" si="1"/>
-        <v>32.200000000000003</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="37" spans="3:8">
       <c r="C37" s="7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
@@ -1750,12 +1743,12 @@
       </c>
       <c r="H37">
         <f t="shared" si="1"/>
-        <v>32.200000000000003</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="38" spans="3:8">
       <c r="C38" s="7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
@@ -1763,207 +1756,385 @@
       </c>
       <c r="H38">
         <f t="shared" si="1"/>
-        <v>32.200000000000003</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="39" spans="3:8">
       <c r="C39" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>46</v>
       </c>
       <c r="H39">
         <f t="shared" si="1"/>
-        <v>32.200000000000003</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="40" spans="3:8">
       <c r="C40" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H40">
-        <f t="shared" si="1"/>
-        <v>32.200000000000003</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="3:8">
       <c r="C41" s="7" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E41:E42" si="2">IF(D41 = "", "", 2*D41)</f>
         <v/>
       </c>
       <c r="H41">
-        <f t="shared" si="1"/>
-        <v>32.200000000000003</v>
+        <f t="shared" ref="H41:H42" si="3">H40+IF(E41 = "", 0, E41)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="3:8">
       <c r="C42" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8">
+      <c r="C43" s="4"/>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H43">
+        <f>H39+IF(E43 = "", 0, E43)</f>
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" ht="18.75">
+      <c r="C44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F44">
+        <f>SUM(E45:E59)</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8">
+      <c r="C45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45">
+        <v>0.3</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>31.200000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8">
+      <c r="C46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>31.200000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8">
+      <c r="C47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>31.200000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8">
+      <c r="C48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>31.200000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8">
+      <c r="C49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>31.200000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8">
+      <c r="C50" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50">
+        <v>0.5</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8">
+      <c r="C51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8">
+      <c r="C52" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8">
+      <c r="C53" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="C54" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="C55" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8">
+      <c r="C56" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H42">
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H56">
         <f t="shared" si="1"/>
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="43" spans="3:8">
-      <c r="C43" s="7" t="s">
+    <row r="57" spans="3:8">
+      <c r="C57" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E43" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H43">
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H57">
         <f t="shared" si="1"/>
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="44" spans="3:8">
-      <c r="C44" s="5" t="s">
+    <row r="58" spans="3:8">
+      <c r="C58" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D44">
+      <c r="D58">
         <v>0.4</v>
       </c>
-      <c r="E44">
+      <c r="E58">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="H44">
+      <c r="H58">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="3:8">
-      <c r="C45" s="4"/>
-      <c r="E45" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H45">
+    <row r="59" spans="3:8">
+      <c r="C59" s="4"/>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H59">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="3:8" ht="18.75">
-      <c r="C46" s="1" t="s">
+    <row r="60" spans="3:8" ht="18.75">
+      <c r="C60" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E46" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F46">
-        <f>SUM(E47:E52)</f>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F60">
+        <f>SUM(E61:E66)</f>
         <v>4.2</v>
       </c>
-      <c r="H46">
+      <c r="H60">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="3:8">
-      <c r="C47" s="5" t="s">
+    <row r="61" spans="3:8">
+      <c r="C61" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D47">
+      <c r="D61">
         <v>0.6</v>
       </c>
-      <c r="E47">
+      <c r="E61">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="H47">
+      <c r="H61">
         <f t="shared" si="1"/>
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="48" spans="3:8">
-      <c r="C48" s="3" t="s">
+    <row r="62" spans="3:8">
+      <c r="C62" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D48">
+      <c r="D62">
         <v>0.4</v>
       </c>
-      <c r="E48">
+      <c r="E62">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="H48">
+      <c r="H62">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="3:8">
-      <c r="C49" s="3" t="s">
+    <row r="63" spans="3:8">
+      <c r="C63" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D49">
+      <c r="D63">
         <v>0.5</v>
       </c>
-      <c r="E49">
+      <c r="E63">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H49">
+      <c r="H63">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="3:8">
-      <c r="C50" s="3" t="s">
+    <row r="64" spans="3:8">
+      <c r="C64" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D50">
+      <c r="D64">
         <v>0.1</v>
       </c>
-      <c r="E50">
+      <c r="E64">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="H50">
+      <c r="H64">
         <f t="shared" si="1"/>
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="51" spans="3:8">
-      <c r="C51" s="3" t="s">
+    <row r="65" spans="3:8">
+      <c r="C65" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D51">
+      <c r="D65">
         <v>0.5</v>
       </c>
-      <c r="E51">
+      <c r="E65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H51">
+      <c r="H65">
         <f t="shared" si="1"/>
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="52" spans="3:8">
-      <c r="C52" s="4"/>
-      <c r="H52">
+    <row r="66" spans="3:8">
+      <c r="C66" s="4"/>
+      <c r="H66">
         <f t="shared" si="1"/>
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="53" spans="3:8">
-      <c r="H53">
+    <row r="67" spans="3:8">
+      <c r="H67">
         <f t="shared" si="1"/>
         <v>37.200000000000003</v>
       </c>

--- a/CUDA/Resources/Jeszcze do zrobienia.xlsx
+++ b/CUDA/Resources/Jeszcze do zrobienia.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Rzeczy do zrobienia jeszcze (40 dni od 21.04.2010):</t>
   </si>
@@ -1048,13 +1048,16 @@
   </si>
   <si>
     <t>k. "W poniższej tabeli jest opisana sekwancja do wygenerowania plików XML zestawu testów i sieci MLP. " - czy to tez wrzucic do zalacznika?</t>
+  </si>
+  <si>
+    <t>l. W rozdziale "5.1.3. Struktura plików danych" - jest wycinek z kodu, który jest bardzo podobny do diagramu "5.1.2.3. Diagram sekwencji uczenia sieci". Czy mają być w jednym miejscu, a jeśli tak, to gdzie?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1097,14 +1100,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -1462,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:K76"/>
+  <dimension ref="C5:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1513,7 +1508,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <f>SUM(E9:E49)</f>
+        <f>SUM(E9:E50)</f>
         <v>30.6</v>
       </c>
     </row>
@@ -1553,7 +1548,7 @@
         <v>28</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H76" si="0">H10+IF(E11 = "", 0, E11)</f>
+        <f t="shared" ref="H11:H77" si="0">H10+IF(E11 = "", 0, E11)</f>
         <v>0.6</v>
       </c>
     </row>
@@ -1619,7 +1614,7 @@
         <v>0.5</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18:E74" si="1">IF(D18 = "", "", 2*D18)</f>
+        <f t="shared" ref="E18:E75" si="1">IF(D18 = "", "", 2*D18)</f>
         <v>1</v>
       </c>
       <c r="H18">
@@ -1785,126 +1780,118 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="3:8">
-      <c r="C34" s="7"/>
-      <c r="H34">
-        <f>H30+IF(E34 = "", 0, E34)</f>
+    <row r="34" spans="3:8" ht="30">
+      <c r="C34" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8">
+      <c r="C35" s="7"/>
+      <c r="H35">
+        <f>H30+IF(E35 = "", 0, E35)</f>
         <v>8.6</v>
       </c>
     </row>
-    <row r="35" spans="3:8">
-      <c r="C35" s="5" t="s">
+    <row r="36" spans="3:8">
+      <c r="C36" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>3</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="H35">
+      <c r="H36">
         <f t="shared" si="0"/>
         <v>14.6</v>
       </c>
     </row>
-    <row r="36" spans="3:8">
-      <c r="C36" s="7" t="s">
+    <row r="37" spans="3:8">
+      <c r="C37" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E36" t="str">
+      <c r="E37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H36">
+      <c r="H37">
         <f t="shared" si="0"/>
         <v>14.6</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8">
-      <c r="C37" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37">
-        <v>1.5</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="0"/>
-        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="38" spans="3:8">
       <c r="C38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38">
+        <v>1.5</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8">
+      <c r="C39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E38" t="str">
+      <c r="E39" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H38">
+      <c r="H39">
         <f t="shared" si="0"/>
         <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8">
-      <c r="C39" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="0"/>
-        <v>23.6</v>
       </c>
     </row>
     <row r="40" spans="3:8">
       <c r="C40" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8">
+      <c r="C41" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <v>2</v>
       </c>
-      <c r="E40">
+      <c r="E41">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H40">
+      <c r="H41">
         <f t="shared" si="0"/>
         <v>27.6</v>
       </c>
     </row>
-    <row r="41" spans="3:8">
-      <c r="C41" s="5" t="s">
+    <row r="42" spans="3:8">
+      <c r="C42" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <v>1.5</v>
       </c>
-      <c r="E41">
+      <c r="E42">
         <f t="shared" si="1"/>
         <v>3</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="0"/>
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="42" spans="3:8">
-      <c r="C42" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
@@ -1913,7 +1900,7 @@
     </row>
     <row r="43" spans="3:8">
       <c r="C43" s="7" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="1"/>
@@ -1926,7 +1913,11 @@
     </row>
     <row r="44" spans="3:8">
       <c r="C44" s="7" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
@@ -1935,7 +1926,7 @@
     </row>
     <row r="45" spans="3:8">
       <c r="C45" s="7" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
@@ -1944,11 +1935,7 @@
     </row>
     <row r="46" spans="3:8">
       <c r="C46" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" t="str">
-        <f t="shared" ref="E46:E47" si="2">IF(D46 = "", "", 2*D46)</f>
-        <v/>
+        <v>56</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
@@ -1957,73 +1944,73 @@
     </row>
     <row r="47" spans="3:8">
       <c r="C47" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" ref="E47:E48" si="2">IF(D47 = "", "", 2*D47)</f>
+        <v/>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8">
+      <c r="C48" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E47" t="str">
+      <c r="E48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H47">
+      <c r="H48">
         <f t="shared" si="0"/>
         <v>30.6</v>
       </c>
     </row>
-    <row r="48" spans="3:8">
-      <c r="C48" s="7" t="s">
+    <row r="49" spans="3:8">
+      <c r="C49" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="3:8">
-      <c r="C49" s="4"/>
-      <c r="E49" t="str">
+    <row r="50" spans="3:8">
+      <c r="C50" s="4"/>
+      <c r="E50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H49">
-        <f>H47+IF(E49 = "", 0, E49)</f>
+      <c r="H50">
+        <f>H48+IF(E50 = "", 0, E50)</f>
         <v>30.6</v>
       </c>
     </row>
-    <row r="50" spans="3:8" ht="18.75">
-      <c r="C50" s="1" t="s">
+    <row r="51" spans="3:8" ht="18.75">
+      <c r="C51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E50" t="str">
+      <c r="E51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F50">
-        <f>SUM(E51:E68)</f>
+      <c r="F51">
+        <f>SUM(E52:E69)</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="H50">
+      <c r="H51">
         <f t="shared" si="0"/>
         <v>30.6</v>
       </c>
     </row>
-    <row r="51" spans="3:8">
-      <c r="C51" s="5" t="s">
+    <row r="52" spans="3:8">
+      <c r="C52" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <v>0.3</v>
       </c>
-      <c r="E51">
+      <c r="E52">
         <f t="shared" si="1"/>
         <v>0.6</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="0"/>
-        <v>31.200000000000003</v>
-      </c>
-    </row>
-    <row r="52" spans="3:8">
-      <c r="C52" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
@@ -2032,7 +2019,7 @@
     </row>
     <row r="53" spans="3:8">
       <c r="C53" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="1"/>
@@ -2045,7 +2032,7 @@
     </row>
     <row r="54" spans="3:8">
       <c r="C54" s="7" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="1"/>
@@ -2058,47 +2045,47 @@
     </row>
     <row r="55" spans="3:8">
       <c r="C55" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>31.200000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8">
+      <c r="C56" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E55" t="str">
+      <c r="E56" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H55">
+      <c r="H56">
         <f t="shared" si="0"/>
         <v>31.200000000000003</v>
       </c>
     </row>
-    <row r="56" spans="3:8">
-      <c r="C56" s="7"/>
-      <c r="H56">
+    <row r="57" spans="3:8">
+      <c r="C57" s="7"/>
+      <c r="H57">
         <f t="shared" si="0"/>
         <v>31.200000000000003</v>
       </c>
     </row>
-    <row r="57" spans="3:8">
-      <c r="C57" s="5" t="s">
+    <row r="58" spans="3:8">
+      <c r="C58" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D57">
+      <c r="D58">
         <v>0.5</v>
       </c>
-      <c r="E57">
+      <c r="E58">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="0"/>
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="58" spans="3:8">
-      <c r="C58" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E58" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
@@ -2107,7 +2094,7 @@
     </row>
     <row r="59" spans="3:8">
       <c r="C59" s="7" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="1"/>
@@ -2120,7 +2107,7 @@
     </row>
     <row r="60" spans="3:8">
       <c r="C60" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="1"/>
@@ -2133,7 +2120,7 @@
     </row>
     <row r="61" spans="3:8">
       <c r="C61" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="1"/>
@@ -2146,7 +2133,7 @@
     </row>
     <row r="62" spans="3:8">
       <c r="C62" s="7" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="1"/>
@@ -2159,7 +2146,7 @@
     </row>
     <row r="63" spans="3:8">
       <c r="C63" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="1"/>
@@ -2172,7 +2159,7 @@
     </row>
     <row r="64" spans="3:8">
       <c r="C64" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="1"/>
@@ -2185,153 +2172,166 @@
     </row>
     <row r="65" spans="3:8">
       <c r="C65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8">
+      <c r="C66" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H65">
+      <c r="H66">
         <f t="shared" si="0"/>
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="66" spans="3:8">
-      <c r="C66" s="7"/>
-      <c r="H66">
+    <row r="67" spans="3:8">
+      <c r="C67" s="7"/>
+      <c r="H67">
         <f t="shared" si="0"/>
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="67" spans="3:8">
-      <c r="C67" s="5" t="s">
+    <row r="68" spans="3:8">
+      <c r="C68" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D67">
+      <c r="D68">
         <v>0.4</v>
       </c>
-      <c r="E67">
+      <c r="E68">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="H67">
+      <c r="H68">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="3:8">
-      <c r="C68" s="4"/>
-      <c r="E68" t="str">
+    <row r="69" spans="3:8">
+      <c r="C69" s="4"/>
+      <c r="E69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H68">
+      <c r="H69">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="3:8" ht="18.75">
-      <c r="C69" s="1" t="s">
+    <row r="70" spans="3:8" ht="18.75">
+      <c r="C70" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E69" t="str">
+      <c r="E70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F69">
-        <f>SUM(E70:E75)</f>
+      <c r="F70">
+        <f>SUM(E71:E76)</f>
         <v>4.2</v>
       </c>
-      <c r="H69">
+      <c r="H70">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="3:8">
-      <c r="C70" s="5" t="s">
+    <row r="71" spans="3:8">
+      <c r="C71" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D70">
+      <c r="D71">
         <v>0.6</v>
       </c>
-      <c r="E70">
+      <c r="E71">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="H70">
+      <c r="H71">
         <f t="shared" si="0"/>
         <v>34.200000000000003</v>
-      </c>
-    </row>
-    <row r="71" spans="3:8">
-      <c r="C71" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D71">
-        <v>0.4</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="0"/>
-        <v>35</v>
       </c>
     </row>
     <row r="72" spans="3:8">
       <c r="C72" s="3" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D72">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E72">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H72">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="3:8">
       <c r="C73" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D73">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E73">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H73">
         <f t="shared" si="0"/>
-        <v>36.200000000000003</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="3:8">
       <c r="C74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74">
+        <v>0.1</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="0"/>
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8">
+      <c r="C75" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D74">
+      <c r="D75">
         <v>0.5</v>
       </c>
-      <c r="E74">
+      <c r="E75">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H74">
+      <c r="H75">
         <f t="shared" si="0"/>
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="75" spans="3:8">
-      <c r="C75" s="4"/>
-      <c r="H75">
+    <row r="76" spans="3:8">
+      <c r="C76" s="4"/>
+      <c r="H76">
         <f t="shared" si="0"/>
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="76" spans="3:8">
-      <c r="H76">
+    <row r="77" spans="3:8">
+      <c r="H77">
         <f t="shared" si="0"/>
         <v>37.200000000000003</v>
       </c>

--- a/CUDA/Resources/Jeszcze do zrobienia.xlsx
+++ b/CUDA/Resources/Jeszcze do zrobienia.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Rzeczy do zrobienia jeszcze (40 dni od 21.04.2010):</t>
   </si>
@@ -424,12 +424,6 @@
     <t>d. Gdzie spis ilustracji/tabel?</t>
   </si>
   <si>
-    <t>e. Nie ma być tezy? W dokumencie teza jest zalecana.</t>
-  </si>
-  <si>
-    <t>f. Czy w tabelach jest taka sama wielkość czcionki jak gdzie indziej? Czy z wyjustowaniem?</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Podpisy tabel: 
 </t>
@@ -566,58 +560,6 @@
   </si>
   <si>
     <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Pójdź do Pietruszkiewicza i zapytaj o ewent. Zmiany (przedtem – przygotuj listę pytań i wyślij prace do niego) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Zdecydowanie, co zrobić ze zbyt dużymi ilustracjami.</t>
-    </r>
-  </si>
-  <si>
-    <t>c. Jaka ma być bibliografia - jak zrobić, żeby odwołania były z nawiasami kwadratowymi. 
-Co, jeśli jeden autor z kilkoma utworami (Np.. NVIDIA)? Czy Ustawić, żeby wyświetlało tytuł?</t>
-  </si>
-  <si>
-    <r>
       <t>5.</t>
     </r>
     <r>
@@ -990,9 +932,6 @@
 Czy dodać też polskie tłumaczenie?</t>
   </si>
   <si>
-    <t>i. Czy po punkcie w wypunktowaniu dodawać kropkę?</t>
-  </si>
-  <si>
     <r>
       <t>e.</t>
     </r>
@@ -1044,13 +983,67 @@
     <t>g. Sprawdz adjustację obrazów</t>
   </si>
   <si>
-    <t>j. Czy przesunąć kernel i wywołanie go do dodatku? A co z formatem plików CSV/XML? Czy listę plików też przenieść?</t>
-  </si>
-  <si>
-    <t>k. "W poniższej tabeli jest opisana sekwancja do wygenerowania plików XML zestawu testów i sieci MLP. " - czy to tez wrzucic do zalacznika?</t>
-  </si>
-  <si>
-    <t>l. W rozdziale "5.1.3. Struktura plików danych" - jest wycinek z kodu, który jest bardzo podobny do diagramu "5.1.2.3. Diagram sekwencji uczenia sieci". Czy mają być w jednym miejscu, a jeśli tak, to gdzie?</t>
+    <t>Tabele - mają grubsze obramowanie tabeli niż między komórkami</t>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pójdź do Wieslawa Pietruszkiewicza i zapytaj o ewent.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>      (N) Niektóre ilustracje, np. diagram klas, będą raczej nieczytelne jeśli nie będą wychodzić za marginesy. Zdecydowanie, co zrobić ze zbyt dużymi ilustracjami.</t>
+    </r>
+  </si>
+  <si>
+    <t>c. (N) Jaka ma być bibliografia - jak zrobić, żeby odwołania były z nawiasami kwadratowymi. 
+Co, jeśli jeden autor z kilkoma utworami (Np.. NVIDIA)? Czy Ustawić, żeby wyświetlało tytuł?</t>
+  </si>
+  <si>
+    <t>e. (N) Nie ma być tezy? W dokumencie teza jest zalecana.</t>
+  </si>
+  <si>
+    <t>f. (N) Czy w tabelach jest taka sama wielkość czcionki jak gdzie indziej? Czy z wyjustowaniem?</t>
+  </si>
+  <si>
+    <t>i. (N) Czy po punkcie w wypunktowaniu dodawać kropkę?</t>
+  </si>
+  <si>
+    <t>j. (N) Czy przesunąć kernel i wywołanie go do dodatku? A co z formatem plików CSV/XML? Czy listę plików też przenieść?</t>
+  </si>
+  <si>
+    <t>k. (N) "W poniższej tabeli jest opisana sekwancja do wygenerowania plików XML zestawu testów i sieci MLP. " - czy to tez wrzucic do zalacznika?</t>
+  </si>
+  <si>
+    <t>l. (N) W rozdziale "5.1.3. Struktura plików danych" - jest wycinek z kodu, który jest bardzo podobny do diagramu "5.1.2.3. Diagram sekwencji uczenia sieci". Czy mają być w jednym miejscu, a jeśli tak, to gdzie?</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1158,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1173,9 +1166,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1213,7 +1206,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1283,7 +1276,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1457,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:K77"/>
+  <dimension ref="C5:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1478,7 +1471,7 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -1508,13 +1501,13 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <f>SUM(E9:E50)</f>
+        <f>SUM(E9:E51)</f>
         <v>30.6</v>
       </c>
     </row>
     <row r="9" spans="3:11">
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <v>0.3</v>
@@ -1548,13 +1541,13 @@
         <v>28</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H77" si="0">H10+IF(E11 = "", 0, E11)</f>
+        <f t="shared" ref="H11:H78" si="0">H10+IF(E11 = "", 0, E11)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="3:11" ht="60">
       <c r="C12" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
@@ -1607,91 +1600,87 @@
       </c>
     </row>
     <row r="18" spans="3:11">
-      <c r="C18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11">
+      <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19">
         <v>0.5</v>
       </c>
-      <c r="E18">
-        <f t="shared" ref="E18:E75" si="1">IF(D18 = "", "", 2*D18)</f>
+      <c r="E19">
+        <f t="shared" ref="E19:E76" si="1">IF(D19 = "", "", 2*D19)</f>
         <v>1</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
+      <c r="H19">
+        <f>H17+IF(E19 = "", 0, E19)</f>
         <v>1.6</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J19" t="s">
         <v>26</v>
       </c>
-      <c r="K18">
+      <c r="K19">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:11">
-      <c r="C19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" t="str">
+    <row r="20" spans="3:11">
+      <c r="C20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H19">
+      <c r="H20">
         <f t="shared" si="0"/>
         <v>1.6</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11">
-      <c r="C20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20">
-        <v>0.5</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>2.6</v>
       </c>
     </row>
     <row r="21" spans="3:11">
       <c r="C21" s="6" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D21">
+        <v>0.5</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11">
+      <c r="C22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22">
         <v>2</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <f t="shared" si="0"/>
         <v>6.6</v>
       </c>
     </row>
-    <row r="22" spans="3:11">
-      <c r="C22" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22">
+    <row r="23" spans="3:11">
+      <c r="C23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <f t="shared" si="1"/>
         <v>2</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11">
-      <c r="C23" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
@@ -1700,29 +1689,29 @@
     </row>
     <row r="24" spans="3:11">
       <c r="C24" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" t="str">
+        <v>34</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11">
+      <c r="C25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H24">
+      <c r="H25">
         <f t="shared" si="0"/>
         <v>8.6</v>
       </c>
     </row>
-    <row r="25" spans="3:11" ht="30">
-      <c r="C25" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11">
-      <c r="C26" s="7" t="s">
-        <v>35</v>
+    <row r="26" spans="3:11" ht="30">
+      <c r="C26" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
@@ -1731,7 +1720,7 @@
     </row>
     <row r="27" spans="3:11">
       <c r="C27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
@@ -1740,7 +1729,7 @@
     </row>
     <row r="28" spans="3:11">
       <c r="C28" s="7" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
@@ -1749,28 +1738,32 @@
     </row>
     <row r="29" spans="3:11">
       <c r="C29" s="7" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
         <v>8.6</v>
       </c>
     </row>
-    <row r="30" spans="3:11" ht="30">
-      <c r="C30" s="9" t="s">
-        <v>65</v>
+    <row r="30" spans="3:11">
+      <c r="C30" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
         <v>8.6</v>
       </c>
     </row>
-    <row r="31" spans="3:11">
+    <row r="31" spans="3:11" ht="30">
       <c r="C31" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="3:11" ht="30">
+        <v>60</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11">
       <c r="C32" s="9" t="s">
         <v>70</v>
       </c>
@@ -1785,126 +1778,118 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="3:8">
-      <c r="C35" s="7"/>
-      <c r="H35">
-        <f>H30+IF(E35 = "", 0, E35)</f>
+    <row r="35" spans="3:8" ht="30">
+      <c r="C35" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8">
+      <c r="C36" s="7"/>
+      <c r="H36">
+        <f>H31+IF(E36 = "", 0, E36)</f>
         <v>8.6</v>
       </c>
     </row>
-    <row r="36" spans="3:8">
-      <c r="C36" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36">
+    <row r="37" spans="3:8">
+      <c r="C37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37">
         <v>3</v>
       </c>
-      <c r="E36">
+      <c r="E37">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="H36">
+      <c r="H37">
         <f t="shared" si="0"/>
         <v>14.6</v>
       </c>
     </row>
-    <row r="37" spans="3:8">
-      <c r="C37" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" t="str">
+    <row r="38" spans="3:8">
+      <c r="C38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H37">
+      <c r="H38">
         <f t="shared" si="0"/>
         <v>14.6</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8">
-      <c r="C38" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38">
-        <v>1.5</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="0"/>
-        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="39" spans="3:8">
       <c r="C39" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" t="str">
+        <v>45</v>
+      </c>
+      <c r="D39">
+        <v>1.5</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8">
+      <c r="C40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H39">
+      <c r="H40">
         <f t="shared" si="0"/>
         <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8">
-      <c r="C40" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="0"/>
-        <v>23.6</v>
       </c>
     </row>
     <row r="41" spans="3:8">
       <c r="C41" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8">
+      <c r="C42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42">
         <v>2</v>
       </c>
-      <c r="E41">
+      <c r="E42">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H41">
+      <c r="H42">
         <f t="shared" si="0"/>
         <v>27.6</v>
       </c>
     </row>
-    <row r="42" spans="3:8">
-      <c r="C42" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42">
+    <row r="43" spans="3:8">
+      <c r="C43" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43">
         <v>1.5</v>
       </c>
-      <c r="E42">
+      <c r="E43">
         <f t="shared" si="1"/>
         <v>3</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="0"/>
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8">
-      <c r="C43" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
@@ -1913,7 +1898,7 @@
     </row>
     <row r="44" spans="3:8">
       <c r="C44" s="7" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="1"/>
@@ -1926,7 +1911,11 @@
     </row>
     <row r="45" spans="3:8">
       <c r="C45" s="7" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
@@ -1935,7 +1924,7 @@
     </row>
     <row r="46" spans="3:8">
       <c r="C46" s="7" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
@@ -1944,11 +1933,7 @@
     </row>
     <row r="47" spans="3:8">
       <c r="C47" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" t="str">
-        <f t="shared" ref="E47:E48" si="2">IF(D47 = "", "", 2*D47)</f>
-        <v/>
+        <v>51</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
@@ -1957,73 +1942,73 @@
     </row>
     <row r="48" spans="3:8">
       <c r="C48" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E48" t="str">
+        <f t="shared" ref="E48:E49" si="2">IF(D48 = "", "", 2*D48)</f>
+        <v/>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8">
+      <c r="C49" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H48">
+      <c r="H49">
         <f t="shared" si="0"/>
         <v>30.6</v>
       </c>
     </row>
-    <row r="49" spans="3:8">
-      <c r="C49" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
     <row r="50" spans="3:8">
-      <c r="C50" s="4"/>
-      <c r="E50" t="str">
+      <c r="C50" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8">
+      <c r="C51" s="4"/>
+      <c r="E51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H50">
-        <f>H48+IF(E50 = "", 0, E50)</f>
+      <c r="H51">
+        <f>H49+IF(E51 = "", 0, E51)</f>
         <v>30.6</v>
       </c>
     </row>
-    <row r="51" spans="3:8" ht="18.75">
-      <c r="C51" s="1" t="s">
+    <row r="52" spans="3:8" ht="18.75">
+      <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E51" t="str">
+      <c r="E52" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F51">
-        <f>SUM(E52:E69)</f>
+      <c r="F52">
+        <f>SUM(E53:E70)</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="H51">
+      <c r="H52">
         <f t="shared" si="0"/>
         <v>30.6</v>
       </c>
     </row>
-    <row r="52" spans="3:8">
-      <c r="C52" s="5" t="s">
+    <row r="53" spans="3:8">
+      <c r="C53" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <v>0.3</v>
       </c>
-      <c r="E52">
+      <c r="E53">
         <f t="shared" si="1"/>
         <v>0.6</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="0"/>
-        <v>31.200000000000003</v>
-      </c>
-    </row>
-    <row r="53" spans="3:8">
-      <c r="C53" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
@@ -2032,7 +2017,7 @@
     </row>
     <row r="54" spans="3:8">
       <c r="C54" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="1"/>
@@ -2045,7 +2030,7 @@
     </row>
     <row r="55" spans="3:8">
       <c r="C55" s="7" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="1"/>
@@ -2058,47 +2043,47 @@
     </row>
     <row r="56" spans="3:8">
       <c r="C56" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>31.200000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8">
+      <c r="C57" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E56" t="str">
+      <c r="E57" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H56">
+      <c r="H57">
         <f t="shared" si="0"/>
         <v>31.200000000000003</v>
       </c>
     </row>
-    <row r="57" spans="3:8">
-      <c r="C57" s="7"/>
-      <c r="H57">
+    <row r="58" spans="3:8">
+      <c r="C58" s="7"/>
+      <c r="H58">
         <f t="shared" si="0"/>
         <v>31.200000000000003</v>
       </c>
     </row>
-    <row r="58" spans="3:8">
-      <c r="C58" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58">
+    <row r="59" spans="3:8">
+      <c r="C59" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59">
         <v>0.5</v>
       </c>
-      <c r="E58">
+      <c r="E59">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="0"/>
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8">
-      <c r="C59" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E59" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
@@ -2107,7 +2092,7 @@
     </row>
     <row r="60" spans="3:8">
       <c r="C60" s="7" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="1"/>
@@ -2120,7 +2105,7 @@
     </row>
     <row r="61" spans="3:8">
       <c r="C61" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="1"/>
@@ -2133,7 +2118,7 @@
     </row>
     <row r="62" spans="3:8">
       <c r="C62" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="1"/>
@@ -2146,7 +2131,7 @@
     </row>
     <row r="63" spans="3:8">
       <c r="C63" s="7" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="1"/>
@@ -2159,7 +2144,7 @@
     </row>
     <row r="64" spans="3:8">
       <c r="C64" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="1"/>
@@ -2172,7 +2157,7 @@
     </row>
     <row r="65" spans="3:8">
       <c r="C65" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="1"/>
@@ -2185,7 +2170,11 @@
     </row>
     <row r="66" spans="3:8">
       <c r="C66" s="7" t="s">
-        <v>63</v>
+        <v>12</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H66">
         <f t="shared" si="0"/>
@@ -2193,145 +2182,154 @@
       </c>
     </row>
     <row r="67" spans="3:8">
-      <c r="C67" s="7"/>
+      <c r="C67" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="H67">
         <f t="shared" si="0"/>
         <v>32.200000000000003</v>
       </c>
     </row>
     <row r="68" spans="3:8">
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="7"/>
+      <c r="H68">
+        <f t="shared" si="0"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8">
+      <c r="C69" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D68">
+      <c r="D69">
         <v>0.4</v>
       </c>
-      <c r="E68">
+      <c r="E69">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="H68">
+      <c r="H69">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="3:8">
-      <c r="C69" s="4"/>
-      <c r="E69" t="str">
+    <row r="70" spans="3:8">
+      <c r="C70" s="4"/>
+      <c r="E70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H69">
+      <c r="H70">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="3:8" ht="18.75">
-      <c r="C70" s="1" t="s">
+    <row r="71" spans="3:8" ht="18.75">
+      <c r="C71" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E70" t="str">
+      <c r="E71" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F70">
-        <f>SUM(E71:E76)</f>
+      <c r="F71">
+        <f>SUM(E72:E77)</f>
         <v>4.2</v>
       </c>
-      <c r="H70">
+      <c r="H71">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="3:8">
-      <c r="C71" s="5" t="s">
+    <row r="72" spans="3:8">
+      <c r="C72" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D71">
+      <c r="D72">
         <v>0.6</v>
       </c>
-      <c r="E71">
+      <c r="E72">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="H71">
+      <c r="H72">
         <f t="shared" si="0"/>
         <v>34.200000000000003</v>
-      </c>
-    </row>
-    <row r="72" spans="3:8">
-      <c r="C72" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D72">
-        <v>0.4</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="0"/>
-        <v>35</v>
       </c>
     </row>
     <row r="73" spans="3:8">
       <c r="C73" s="3" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D73">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E73">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H73">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="3:8">
       <c r="C74" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D74">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E74">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H74">
         <f t="shared" si="0"/>
-        <v>36.200000000000003</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="3:8">
       <c r="C75" s="3" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D75">
+        <v>0.1</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="0"/>
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8">
+      <c r="C76" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D76">
         <v>0.5</v>
       </c>
-      <c r="E75">
+      <c r="E76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H75">
+      <c r="H76">
         <f t="shared" si="0"/>
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="76" spans="3:8">
-      <c r="C76" s="4"/>
-      <c r="H76">
+    <row r="77" spans="3:8">
+      <c r="C77" s="4"/>
+      <c r="H77">
         <f t="shared" si="0"/>
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="77" spans="3:8">
-      <c r="H77">
+    <row r="78" spans="3:8">
+      <c r="H78">
         <f t="shared" si="0"/>
         <v>37.200000000000003</v>
       </c>

--- a/CUDA/Resources/Jeszcze do zrobienia.xlsx
+++ b/CUDA/Resources/Jeszcze do zrobienia.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Rzeczy do zrobienia jeszcze (40 dni od 21.04.2010):</t>
   </si>
@@ -122,102 +122,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>bibliografii</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nazwy  klas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>c.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nazwy metod</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>d.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nazwy funkcji</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>f.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>kody źródłowe</t>
     </r>
   </si>
   <si>
@@ -803,54 +707,6 @@
   </si>
   <si>
     <r>
-      <t>a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nazwy plików</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>e.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>słowa kluczowe C/C++</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>13.</t>
     </r>
     <r>
@@ -898,9 +754,6 @@
       </rPr>
       <t>Sprawdź ortografie, gramatykę (końcowo, żeby nie było błędów)</t>
     </r>
-  </si>
-  <si>
-    <t>h. Zewnątrzne programy - physx, matlab</t>
   </si>
   <si>
     <r>
@@ -1044,6 +897,105 @@
   </si>
   <si>
     <t>l. (N) W rozdziale "5.1.3. Struktura plików danych" - jest wycinek z kodu, który jest bardzo podobny do diagramu "5.1.2.3. Diagram sekwencji uczenia sieci". Czy mają być w jednym miejscu, a jeśli tak, to gdzie?</t>
+  </si>
+  <si>
+    <r>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nazwy  klas, metod, funkcji (Styl: Klasa metoda funkcja)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nazwy plików (Styl: Nazwa pliku)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>e.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>słowa kluczowe C/C++ (jest ich malo, wiec Styl: Podkreslenie)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kody źródłowe (Styl: Kod)</t>
+    </r>
+  </si>
+  <si>
+    <t>h. Zewnątrzne programy, biblioteki - physx, matlab, TinyXML (Styl: Podkeślenie)</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1110,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1166,9 +1118,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1206,7 +1158,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1276,7 +1228,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1450,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:K78"/>
+  <dimension ref="C5:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1468,22 +1420,22 @@
   <sheetData>
     <row r="5" spans="3:11" ht="30">
       <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="3:11" ht="18.75">
@@ -1507,7 +1459,7 @@
     </row>
     <row r="9" spans="3:11">
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>0.3</v>
@@ -1521,7 +1473,7 @@
         <v>0.6</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1529,7 +1481,7 @@
     </row>
     <row r="10" spans="3:11">
       <c r="C10" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H10">
         <f>H9+IF(E10 = "", 0, E10)</f>
@@ -1538,16 +1490,16 @@
     </row>
     <row r="11" spans="3:11" ht="60">
       <c r="C11" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H78" si="0">H10+IF(E11 = "", 0, E11)</f>
+        <f t="shared" ref="H11:H76" si="0">H10+IF(E11 = "", 0, E11)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="3:11" ht="60">
       <c r="C12" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
@@ -1556,7 +1508,7 @@
     </row>
     <row r="13" spans="3:11">
       <c r="C13" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
@@ -1565,7 +1517,7 @@
     </row>
     <row r="14" spans="3:11">
       <c r="C14" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
@@ -1574,7 +1526,7 @@
     </row>
     <row r="15" spans="3:11" ht="30">
       <c r="C15" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
@@ -1583,7 +1535,7 @@
     </row>
     <row r="16" spans="3:11">
       <c r="C16" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
@@ -1592,7 +1544,7 @@
     </row>
     <row r="17" spans="3:11">
       <c r="C17" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
@@ -1601,18 +1553,18 @@
     </row>
     <row r="18" spans="3:11">
       <c r="C18" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="3:11">
       <c r="C19" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D19">
         <v>0.5</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:E76" si="1">IF(D19 = "", "", 2*D19)</f>
+        <f t="shared" ref="E19:E74" si="1">IF(D19 = "", "", 2*D19)</f>
         <v>1</v>
       </c>
       <c r="H19">
@@ -1620,7 +1572,7 @@
         <v>1.6</v>
       </c>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1628,7 +1580,7 @@
     </row>
     <row r="20" spans="3:11">
       <c r="C20" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="1"/>
@@ -1641,7 +1593,7 @@
     </row>
     <row r="21" spans="3:11">
       <c r="C21" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D21">
         <v>0.5</v>
@@ -1657,7 +1609,7 @@
     </row>
     <row r="22" spans="3:11">
       <c r="C22" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1673,7 +1625,7 @@
     </row>
     <row r="23" spans="3:11">
       <c r="C23" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1689,7 +1641,7 @@
     </row>
     <row r="24" spans="3:11">
       <c r="C24" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
@@ -1698,7 +1650,7 @@
     </row>
     <row r="25" spans="3:11">
       <c r="C25" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="1"/>
@@ -1711,7 +1663,7 @@
     </row>
     <row r="26" spans="3:11" ht="30">
       <c r="C26" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
@@ -1720,7 +1672,7 @@
     </row>
     <row r="27" spans="3:11">
       <c r="C27" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
@@ -1729,7 +1681,7 @@
     </row>
     <row r="28" spans="3:11">
       <c r="C28" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
@@ -1738,7 +1690,7 @@
     </row>
     <row r="29" spans="3:11">
       <c r="C29" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
@@ -1747,7 +1699,7 @@
     </row>
     <row r="30" spans="3:11">
       <c r="C30" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
@@ -1756,7 +1708,7 @@
     </row>
     <row r="31" spans="3:11" ht="30">
       <c r="C31" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
@@ -1765,22 +1717,22 @@
     </row>
     <row r="32" spans="3:11">
       <c r="C32" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="30">
       <c r="C33" s="9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="30">
       <c r="C34" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="30">
       <c r="C35" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="3:8">
@@ -1792,7 +1744,7 @@
     </row>
     <row r="37" spans="3:8">
       <c r="C37" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -1808,7 +1760,7 @@
     </row>
     <row r="38" spans="3:8">
       <c r="C38" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="1"/>
@@ -1821,7 +1773,7 @@
     </row>
     <row r="39" spans="3:8">
       <c r="C39" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D39">
         <v>1.5</v>
@@ -1837,7 +1789,7 @@
     </row>
     <row r="40" spans="3:8">
       <c r="C40" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="1"/>
@@ -1850,7 +1802,7 @@
     </row>
     <row r="41" spans="3:8">
       <c r="C41" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -1866,7 +1818,7 @@
     </row>
     <row r="42" spans="3:8">
       <c r="C42" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -1882,7 +1834,7 @@
     </row>
     <row r="43" spans="3:8">
       <c r="C43" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D43">
         <v>1.5</v>
@@ -1898,7 +1850,7 @@
     </row>
     <row r="44" spans="3:8">
       <c r="C44" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="1"/>
@@ -1924,7 +1876,7 @@
     </row>
     <row r="46" spans="3:8">
       <c r="C46" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
@@ -1933,7 +1885,7 @@
     </row>
     <row r="47" spans="3:8">
       <c r="C47" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
@@ -1942,7 +1894,7 @@
     </row>
     <row r="48" spans="3:8">
       <c r="C48" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" ref="E48:E49" si="2">IF(D48 = "", "", 2*D48)</f>
@@ -1955,7 +1907,7 @@
     </row>
     <row r="49" spans="3:8">
       <c r="C49" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="2"/>
@@ -1968,7 +1920,7 @@
     </row>
     <row r="50" spans="3:8">
       <c r="C50" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="3:8">
@@ -1991,7 +1943,7 @@
         <v/>
       </c>
       <c r="F52">
-        <f>SUM(E53:E70)</f>
+        <f>SUM(E53:E68)</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="H52">
@@ -2001,7 +1953,7 @@
     </row>
     <row r="53" spans="3:8">
       <c r="C53" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D53">
         <v>0.3</v>
@@ -2043,7 +1995,7 @@
     </row>
     <row r="56" spans="3:8">
       <c r="C56" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="1"/>
@@ -2076,7 +2028,7 @@
     </row>
     <row r="59" spans="3:8">
       <c r="C59" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D59">
         <v>0.5</v>
@@ -2092,7 +2044,7 @@
     </row>
     <row r="60" spans="3:8">
       <c r="C60" s="7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="1"/>
@@ -2105,7 +2057,7 @@
     </row>
     <row r="61" spans="3:8">
       <c r="C61" s="7" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="1"/>
@@ -2118,7 +2070,7 @@
     </row>
     <row r="62" spans="3:8">
       <c r="C62" s="7" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="1"/>
@@ -2131,7 +2083,7 @@
     </row>
     <row r="63" spans="3:8">
       <c r="C63" s="7" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="1"/>
@@ -2144,7 +2096,7 @@
     </row>
     <row r="64" spans="3:8">
       <c r="C64" s="7" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="1"/>
@@ -2157,125 +2109,131 @@
     </row>
     <row r="65" spans="3:8">
       <c r="C65" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8">
+      <c r="C66" s="7"/>
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8">
+      <c r="C67" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E65" t="str">
+      <c r="D67">
+        <v>0.4</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8">
+      <c r="C68" s="4"/>
+      <c r="E68" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H65">
-        <f t="shared" si="0"/>
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="66" spans="3:8">
-      <c r="C66" s="7" t="s">
+      <c r="H68">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" ht="18.75">
+      <c r="C69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F69">
+        <f>SUM(E70:E75)</f>
+        <v>4.2</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8">
+      <c r="C70" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E66" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H66">
-        <f t="shared" si="0"/>
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="67" spans="3:8">
-      <c r="C67" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H67">
-        <f t="shared" si="0"/>
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="68" spans="3:8">
-      <c r="C68" s="7"/>
-      <c r="H68">
-        <f t="shared" si="0"/>
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="69" spans="3:8">
-      <c r="C69" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69">
+      <c r="D70">
+        <v>0.6</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="0"/>
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8">
+      <c r="C71" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71">
         <v>0.4</v>
       </c>
-      <c r="E69">
+      <c r="E71">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="H69">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="70" spans="3:8">
-      <c r="C70" s="4"/>
-      <c r="E70" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H70">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="3:8" ht="18.75">
-      <c r="C71" s="1" t="s">
+      <c r="H71">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8">
+      <c r="C72" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E71" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F71">
-        <f>SUM(E72:E77)</f>
-        <v>4.2</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="3:8">
-      <c r="C72" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="D72">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E72">
         <f t="shared" si="1"/>
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H72">
         <f t="shared" si="0"/>
-        <v>34.200000000000003</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="3:8">
       <c r="C73" s="3" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D73">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="E73">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H73">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36.200000000000003</v>
       </c>
     </row>
     <row r="74" spans="3:8">
       <c r="C74" s="3" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D74">
         <v>0.5</v>
@@ -2286,50 +2244,18 @@
       </c>
       <c r="H74">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="75" spans="3:8">
-      <c r="C75" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75">
-        <v>0.1</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
+      <c r="C75" s="4"/>
       <c r="H75">
         <f t="shared" si="0"/>
-        <v>36.200000000000003</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="76" spans="3:8">
-      <c r="C76" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D76">
-        <v>0.5</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="H76">
-        <f t="shared" si="0"/>
-        <v>37.200000000000003</v>
-      </c>
-    </row>
-    <row r="77" spans="3:8">
-      <c r="C77" s="4"/>
-      <c r="H77">
-        <f t="shared" si="0"/>
-        <v>37.200000000000003</v>
-      </c>
-    </row>
-    <row r="78" spans="3:8">
-      <c r="H78">
         <f t="shared" si="0"/>
         <v>37.200000000000003</v>
       </c>

--- a/CUDA/Resources/Jeszcze do zrobienia.xlsx
+++ b/CUDA/Resources/Jeszcze do zrobienia.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Rzeczy do zrobienia jeszcze (40 dni od 21.04.2010):</t>
   </si>
@@ -996,6 +996,9 @@
   </si>
   <si>
     <t>h. Zewnątrzne programy, biblioteki - physx, matlab, TinyXML (Styl: Podkeślenie)</t>
+  </si>
+  <si>
+    <t>m. Czy obrazki mają być wyśrodkowane, czy z lewej strony?</t>
   </si>
 </sst>
 </file>
@@ -1402,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:K76"/>
+  <dimension ref="C5:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1453,7 +1456,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <f>SUM(E9:E51)</f>
+        <f>SUM(E9:E52)</f>
         <v>30.6</v>
       </c>
     </row>
@@ -1493,7 +1496,7 @@
         <v>24</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H76" si="0">H10+IF(E11 = "", 0, E11)</f>
+        <f t="shared" ref="H11:H77" si="0">H10+IF(E11 = "", 0, E11)</f>
         <v>0.6</v>
       </c>
     </row>
@@ -1564,7 +1567,7 @@
         <v>0.5</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:E74" si="1">IF(D19 = "", "", 2*D19)</f>
+        <f t="shared" ref="E19:E75" si="1">IF(D19 = "", "", 2*D19)</f>
         <v>1</v>
       </c>
       <c r="H19">
@@ -1736,125 +1739,117 @@
       </c>
     </row>
     <row r="36" spans="3:8">
-      <c r="C36" s="7"/>
-      <c r="H36">
-        <f>H31+IF(E36 = "", 0, E36)</f>
+      <c r="C36" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8">
+      <c r="C37" s="7"/>
+      <c r="H37">
+        <f>H31+IF(E37 = "", 0, E37)</f>
         <v>8.6</v>
       </c>
     </row>
-    <row r="37" spans="3:8">
-      <c r="C37" s="5" t="s">
+    <row r="38" spans="3:8">
+      <c r="C38" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>3</v>
       </c>
-      <c r="E37">
+      <c r="E38">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="H37">
+      <c r="H38">
         <f t="shared" si="0"/>
         <v>14.6</v>
       </c>
     </row>
-    <row r="38" spans="3:8">
-      <c r="C38" s="7" t="s">
+    <row r="39" spans="3:8">
+      <c r="C39" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E38" t="str">
+      <c r="E39" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H38">
+      <c r="H39">
         <f t="shared" si="0"/>
         <v>14.6</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8">
-      <c r="C39" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39">
-        <v>1.5</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="0"/>
-        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="40" spans="3:8">
       <c r="C40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40">
+        <v>1.5</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8">
+      <c r="C41" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E40" t="str">
+      <c r="E41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H40">
+      <c r="H41">
         <f t="shared" si="0"/>
         <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8">
-      <c r="C41" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="0"/>
-        <v>23.6</v>
       </c>
     </row>
     <row r="42" spans="3:8">
       <c r="C42" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8">
+      <c r="C43" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <v>2</v>
       </c>
-      <c r="E42">
+      <c r="E43">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H42">
+      <c r="H43">
         <f t="shared" si="0"/>
         <v>27.6</v>
       </c>
     </row>
-    <row r="43" spans="3:8">
-      <c r="C43" s="5" t="s">
+    <row r="44" spans="3:8">
+      <c r="C44" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <v>1.5</v>
       </c>
-      <c r="E43">
+      <c r="E44">
         <f t="shared" si="1"/>
         <v>3</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="0"/>
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="44" spans="3:8">
-      <c r="C44" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
@@ -1863,7 +1858,7 @@
     </row>
     <row r="45" spans="3:8">
       <c r="C45" s="7" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="1"/>
@@ -1876,7 +1871,11 @@
     </row>
     <row r="46" spans="3:8">
       <c r="C46" s="7" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
@@ -1885,7 +1884,7 @@
     </row>
     <row r="47" spans="3:8">
       <c r="C47" s="7" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
@@ -1894,11 +1893,7 @@
     </row>
     <row r="48" spans="3:8">
       <c r="C48" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" ref="E48:E49" si="2">IF(D48 = "", "", 2*D48)</f>
-        <v/>
+        <v>47</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
@@ -1907,73 +1902,73 @@
     </row>
     <row r="49" spans="3:8">
       <c r="C49" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" ref="E49:E50" si="2">IF(D49 = "", "", 2*D49)</f>
+        <v/>
+      </c>
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8">
+      <c r="C50" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E49" t="str">
+      <c r="E50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H49">
+      <c r="H50">
         <f t="shared" si="0"/>
         <v>30.6</v>
       </c>
     </row>
-    <row r="50" spans="3:8">
-      <c r="C50" s="7" t="s">
+    <row r="51" spans="3:8">
+      <c r="C51" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="3:8">
-      <c r="C51" s="4"/>
-      <c r="E51" t="str">
+    <row r="52" spans="3:8">
+      <c r="C52" s="4"/>
+      <c r="E52" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H51">
-        <f>H49+IF(E51 = "", 0, E51)</f>
+      <c r="H52">
+        <f>H50+IF(E52 = "", 0, E52)</f>
         <v>30.6</v>
       </c>
     </row>
-    <row r="52" spans="3:8" ht="18.75">
-      <c r="C52" s="1" t="s">
+    <row r="53" spans="3:8" ht="18.75">
+      <c r="C53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E52" t="str">
+      <c r="E53" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F52">
-        <f>SUM(E53:E68)</f>
+      <c r="F53">
+        <f>SUM(E54:E69)</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="H52">
+      <c r="H53">
         <f t="shared" si="0"/>
         <v>30.6</v>
       </c>
     </row>
-    <row r="53" spans="3:8">
-      <c r="C53" s="5" t="s">
+    <row r="54" spans="3:8">
+      <c r="C54" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D53">
+      <c r="D54">
         <v>0.3</v>
       </c>
-      <c r="E53">
+      <c r="E54">
         <f t="shared" si="1"/>
         <v>0.6</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="0"/>
-        <v>31.200000000000003</v>
-      </c>
-    </row>
-    <row r="54" spans="3:8">
-      <c r="C54" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
@@ -1982,7 +1977,7 @@
     </row>
     <row r="55" spans="3:8">
       <c r="C55" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="1"/>
@@ -1995,7 +1990,7 @@
     </row>
     <row r="56" spans="3:8">
       <c r="C56" s="7" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="1"/>
@@ -2008,47 +2003,47 @@
     </row>
     <row r="57" spans="3:8">
       <c r="C57" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>31.200000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8">
+      <c r="C58" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E57" t="str">
+      <c r="E58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H57">
+      <c r="H58">
         <f t="shared" si="0"/>
         <v>31.200000000000003</v>
       </c>
     </row>
-    <row r="58" spans="3:8">
-      <c r="C58" s="7"/>
-      <c r="H58">
+    <row r="59" spans="3:8">
+      <c r="C59" s="7"/>
+      <c r="H59">
         <f t="shared" si="0"/>
         <v>31.200000000000003</v>
       </c>
     </row>
-    <row r="59" spans="3:8">
-      <c r="C59" s="5" t="s">
+    <row r="60" spans="3:8">
+      <c r="C60" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D59">
+      <c r="D60">
         <v>0.5</v>
       </c>
-      <c r="E59">
+      <c r="E60">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="0"/>
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8">
-      <c r="C60" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E60" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
@@ -2057,7 +2052,7 @@
     </row>
     <row r="61" spans="3:8">
       <c r="C61" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="1"/>
@@ -2070,7 +2065,7 @@
     </row>
     <row r="62" spans="3:8">
       <c r="C62" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="1"/>
@@ -2083,7 +2078,7 @@
     </row>
     <row r="63" spans="3:8">
       <c r="C63" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="1"/>
@@ -2096,7 +2091,7 @@
     </row>
     <row r="64" spans="3:8">
       <c r="C64" s="7" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="1"/>
@@ -2109,153 +2104,166 @@
     </row>
     <row r="65" spans="3:8">
       <c r="C65" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8">
+      <c r="C66" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H65">
+      <c r="H66">
         <f t="shared" si="0"/>
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="66" spans="3:8">
-      <c r="C66" s="7"/>
-      <c r="H66">
+    <row r="67" spans="3:8">
+      <c r="C67" s="7"/>
+      <c r="H67">
         <f t="shared" si="0"/>
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="67" spans="3:8">
-      <c r="C67" s="5" t="s">
+    <row r="68" spans="3:8">
+      <c r="C68" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D67">
+      <c r="D68">
         <v>0.4</v>
       </c>
-      <c r="E67">
+      <c r="E68">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="H67">
+      <c r="H68">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="3:8">
-      <c r="C68" s="4"/>
-      <c r="E68" t="str">
+    <row r="69" spans="3:8">
+      <c r="C69" s="4"/>
+      <c r="E69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H68">
+      <c r="H69">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="3:8" ht="18.75">
-      <c r="C69" s="1" t="s">
+    <row r="70" spans="3:8" ht="18.75">
+      <c r="C70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E69" t="str">
+      <c r="E70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F69">
-        <f>SUM(E70:E75)</f>
+      <c r="F70">
+        <f>SUM(E71:E76)</f>
         <v>4.2</v>
       </c>
-      <c r="H69">
+      <c r="H70">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="3:8">
-      <c r="C70" s="5" t="s">
+    <row r="71" spans="3:8">
+      <c r="C71" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D70">
+      <c r="D71">
         <v>0.6</v>
       </c>
-      <c r="E70">
+      <c r="E71">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="H70">
+      <c r="H71">
         <f t="shared" si="0"/>
         <v>34.200000000000003</v>
-      </c>
-    </row>
-    <row r="71" spans="3:8">
-      <c r="C71" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D71">
-        <v>0.4</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="0"/>
-        <v>35</v>
       </c>
     </row>
     <row r="72" spans="3:8">
       <c r="C72" s="3" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D72">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E72">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H72">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="3:8">
       <c r="C73" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D73">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E73">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H73">
         <f t="shared" si="0"/>
-        <v>36.200000000000003</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="3:8">
       <c r="C74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74">
+        <v>0.1</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="0"/>
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8">
+      <c r="C75" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D74">
+      <c r="D75">
         <v>0.5</v>
       </c>
-      <c r="E74">
+      <c r="E75">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H74">
+      <c r="H75">
         <f t="shared" si="0"/>
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="75" spans="3:8">
-      <c r="C75" s="4"/>
-      <c r="H75">
+    <row r="76" spans="3:8">
+      <c r="C76" s="4"/>
+      <c r="H76">
         <f t="shared" si="0"/>
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="76" spans="3:8">
-      <c r="H76">
+    <row r="77" spans="3:8">
+      <c r="H77">
         <f t="shared" si="0"/>
         <v>37.200000000000003</v>
       </c>

--- a/CUDA/Resources/Jeszcze do zrobienia.xlsx
+++ b/CUDA/Resources/Jeszcze do zrobienia.xlsx
@@ -1113,7 +1113,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1121,9 +1121,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1161,7 +1161,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1231,7 +1231,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1407,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C5:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/CUDA/Resources/Jeszcze do zrobienia.xlsx
+++ b/CUDA/Resources/Jeszcze do zrobienia.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Rzeczy do zrobienia jeszcze (40 dni od 21.04.2010):</t>
   </si>
@@ -999,6 +999,12 @@
   </si>
   <si>
     <t>m. Czy obrazki mają być wyśrodkowane, czy z lewej strony?</t>
+  </si>
+  <si>
+    <t>n. (N) Czy nowo wprowadzane pojęcia powinny być oznaczane podkreśleniem?</t>
+  </si>
+  <si>
+    <t>o. (N) Czy wypunktowanie ma być wyjustowane?</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1119,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1121,9 +1127,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1161,7 +1167,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1231,7 +1237,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1405,10 +1411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:K77"/>
+  <dimension ref="C5:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1456,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <f>SUM(E9:E52)</f>
+        <f>SUM(E9:E54)</f>
         <v>30.6</v>
       </c>
     </row>
@@ -1496,7 +1502,7 @@
         <v>24</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H77" si="0">H10+IF(E11 = "", 0, E11)</f>
+        <f t="shared" ref="H11:H79" si="0">H10+IF(E11 = "", 0, E11)</f>
         <v>0.6</v>
       </c>
     </row>
@@ -1567,7 +1573,7 @@
         <v>0.5</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:E75" si="1">IF(D19 = "", "", 2*D19)</f>
+        <f t="shared" ref="E19:E77" si="1">IF(D19 = "", "", 2*D19)</f>
         <v>1</v>
       </c>
       <c r="H19">
@@ -1744,138 +1750,122 @@
       </c>
     </row>
     <row r="37" spans="3:8">
-      <c r="C37" s="7"/>
-      <c r="H37">
-        <f>H31+IF(E37 = "", 0, E37)</f>
+      <c r="C37" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8">
+      <c r="C38" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8">
+      <c r="C39" s="7"/>
+      <c r="H39">
+        <f>H31+IF(E39 = "", 0, E39)</f>
         <v>8.6</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8">
-      <c r="C38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="0"/>
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8">
-      <c r="C39" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H39">
-        <f t="shared" si="0"/>
-        <v>14.6</v>
       </c>
     </row>
     <row r="40" spans="3:8">
       <c r="C40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8">
+      <c r="C41" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8">
+      <c r="C42" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D40">
+      <c r="D42">
         <v>1.5</v>
       </c>
-      <c r="E40">
+      <c r="E42">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H40">
+      <c r="H42">
         <f t="shared" si="0"/>
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="41" spans="3:8">
-      <c r="C41" s="5" t="s">
+    <row r="43" spans="3:8">
+      <c r="C43" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E41" t="str">
+      <c r="E43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H41">
+      <c r="H43">
         <f t="shared" si="0"/>
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="42" spans="3:8">
-      <c r="C42" s="7" t="s">
+    <row r="44" spans="3:8">
+      <c r="C44" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D42">
+      <c r="D44">
         <v>3</v>
       </c>
-      <c r="E42">
+      <c r="E44">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="H42">
+      <c r="H44">
         <f t="shared" si="0"/>
         <v>23.6</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8">
-      <c r="C43" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="0"/>
-        <v>27.6</v>
-      </c>
-    </row>
-    <row r="44" spans="3:8">
-      <c r="C44" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44">
-        <v>1.5</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="0"/>
-        <v>30.6</v>
       </c>
     </row>
     <row r="45" spans="3:8">
       <c r="C45" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>44</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>30.6</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="46" spans="3:8">
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46">
+        <v>1.5</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
         <v>3</v>
-      </c>
-      <c r="E46" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
@@ -1884,7 +1874,11 @@
     </row>
     <row r="47" spans="3:8">
       <c r="C47" s="7" t="s">
-        <v>20</v>
+        <v>46</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
@@ -1893,7 +1887,11 @@
     </row>
     <row r="48" spans="3:8">
       <c r="C48" s="7" t="s">
-        <v>47</v>
+        <v>3</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
@@ -1902,11 +1900,7 @@
     </row>
     <row r="49" spans="3:8">
       <c r="C49" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" t="str">
-        <f t="shared" ref="E49:E50" si="2">IF(D49 = "", "", 2*D49)</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
@@ -1915,86 +1909,82 @@
     </row>
     <row r="50" spans="3:8">
       <c r="C50" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8">
+      <c r="C51" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" ref="E51:E52" si="2">IF(D51 = "", "", 2*D51)</f>
+        <v/>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8">
+      <c r="C52" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E50" t="str">
+      <c r="E52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H50">
+      <c r="H52">
         <f t="shared" si="0"/>
         <v>30.6</v>
       </c>
     </row>
-    <row r="51" spans="3:8">
-      <c r="C51" s="7" t="s">
+    <row r="53" spans="3:8">
+      <c r="C53" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="3:8">
-      <c r="C52" s="4"/>
-      <c r="E52" t="str">
+    <row r="54" spans="3:8">
+      <c r="C54" s="4"/>
+      <c r="E54" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H52">
-        <f>H50+IF(E52 = "", 0, E52)</f>
+      <c r="H54">
+        <f>H52+IF(E54 = "", 0, E54)</f>
         <v>30.6</v>
       </c>
     </row>
-    <row r="53" spans="3:8" ht="18.75">
-      <c r="C53" s="1" t="s">
+    <row r="55" spans="3:8" ht="18.75">
+      <c r="C55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E53" t="str">
+      <c r="E55" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F53">
-        <f>SUM(E54:E69)</f>
+      <c r="F55">
+        <f>SUM(E56:E71)</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="H53">
+      <c r="H55">
         <f t="shared" si="0"/>
         <v>30.6</v>
       </c>
     </row>
-    <row r="54" spans="3:8">
-      <c r="C54" s="5" t="s">
+    <row r="56" spans="3:8">
+      <c r="C56" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D54">
+      <c r="D56">
         <v>0.3</v>
       </c>
-      <c r="E54">
+      <c r="E56">
         <f t="shared" si="1"/>
         <v>0.6</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="0"/>
-        <v>31.200000000000003</v>
-      </c>
-    </row>
-    <row r="55" spans="3:8">
-      <c r="C55" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H55">
-        <f t="shared" si="0"/>
-        <v>31.200000000000003</v>
-      </c>
-    </row>
-    <row r="56" spans="3:8">
-      <c r="C56" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
@@ -2003,7 +1993,7 @@
     </row>
     <row r="57" spans="3:8">
       <c r="C57" s="7" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="1"/>
@@ -2016,60 +2006,60 @@
     </row>
     <row r="58" spans="3:8">
       <c r="C58" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>31.200000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8">
+      <c r="C59" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>31.200000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8">
+      <c r="C60" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E58" t="str">
+      <c r="E60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H58">
+      <c r="H60">
         <f t="shared" si="0"/>
         <v>31.200000000000003</v>
       </c>
     </row>
-    <row r="59" spans="3:8">
-      <c r="C59" s="7"/>
-      <c r="H59">
+    <row r="61" spans="3:8">
+      <c r="C61" s="7"/>
+      <c r="H61">
         <f t="shared" si="0"/>
         <v>31.200000000000003</v>
       </c>
     </row>
-    <row r="60" spans="3:8">
-      <c r="C60" s="5" t="s">
+    <row r="62" spans="3:8">
+      <c r="C62" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D60">
+      <c r="D62">
         <v>0.5</v>
       </c>
-      <c r="E60">
+      <c r="E62">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="0"/>
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="61" spans="3:8">
-      <c r="C61" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E61" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H61">
-        <f t="shared" si="0"/>
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="62" spans="3:8">
-      <c r="C62" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E62" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="H62">
         <f t="shared" si="0"/>
@@ -2078,7 +2068,7 @@
     </row>
     <row r="63" spans="3:8">
       <c r="C63" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="1"/>
@@ -2091,7 +2081,7 @@
     </row>
     <row r="64" spans="3:8">
       <c r="C64" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="1"/>
@@ -2104,7 +2094,7 @@
     </row>
     <row r="65" spans="3:8">
       <c r="C65" s="7" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="1"/>
@@ -2117,131 +2107,125 @@
     </row>
     <row r="66" spans="3:8">
       <c r="C66" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8">
+      <c r="C67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H67">
+        <f t="shared" si="0"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8">
+      <c r="C68" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H66">
+      <c r="H68">
         <f t="shared" si="0"/>
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="67" spans="3:8">
-      <c r="C67" s="7"/>
-      <c r="H67">
+    <row r="69" spans="3:8">
+      <c r="C69" s="7"/>
+      <c r="H69">
         <f t="shared" si="0"/>
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="68" spans="3:8">
-      <c r="C68" s="5" t="s">
+    <row r="70" spans="3:8">
+      <c r="C70" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D68">
+      <c r="D70">
         <v>0.4</v>
       </c>
-      <c r="E68">
+      <c r="E70">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="H68">
+      <c r="H70">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="3:8">
-      <c r="C69" s="4"/>
-      <c r="E69" t="str">
+    <row r="71" spans="3:8">
+      <c r="C71" s="4"/>
+      <c r="E71" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H69">
+      <c r="H71">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="3:8" ht="18.75">
-      <c r="C70" s="1" t="s">
+    <row r="72" spans="3:8" ht="18.75">
+      <c r="C72" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E70" t="str">
+      <c r="E72" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F70">
-        <f>SUM(E71:E76)</f>
+      <c r="F72">
+        <f>SUM(E73:E78)</f>
         <v>4.2</v>
       </c>
-      <c r="H70">
+      <c r="H72">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="3:8">
-      <c r="C71" s="5" t="s">
+    <row r="73" spans="3:8">
+      <c r="C73" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D71">
+      <c r="D73">
         <v>0.6</v>
       </c>
-      <c r="E71">
+      <c r="E73">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="H71">
+      <c r="H73">
         <f t="shared" si="0"/>
         <v>34.200000000000003</v>
-      </c>
-    </row>
-    <row r="72" spans="3:8">
-      <c r="C72" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D72">
-        <v>0.4</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="73" spans="3:8">
-      <c r="C73" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73">
-        <v>0.5</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="0"/>
-        <v>36</v>
       </c>
     </row>
     <row r="74" spans="3:8">
       <c r="C74" s="3" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D74">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E74">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H74">
         <f t="shared" si="0"/>
-        <v>36.200000000000003</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="3:8">
       <c r="C75" s="3" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D75">
         <v>0.5</v>
@@ -2252,18 +2236,50 @@
       </c>
       <c r="H75">
         <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8">
+      <c r="C76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76">
+        <v>0.1</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="0"/>
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8">
+      <c r="C77" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77">
+        <v>0.5</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="0"/>
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="76" spans="3:8">
-      <c r="C76" s="4"/>
-      <c r="H76">
+    <row r="78" spans="3:8">
+      <c r="C78" s="4"/>
+      <c r="H78">
         <f t="shared" si="0"/>
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="77" spans="3:8">
-      <c r="H77">
+    <row r="79" spans="3:8">
+      <c r="H79">
         <f t="shared" si="0"/>
         <v>37.200000000000003</v>
       </c>

--- a/CUDA/Resources/Jeszcze do zrobienia.xlsx
+++ b/CUDA/Resources/Jeszcze do zrobienia.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Rzeczy do zrobienia jeszcze (40 dni od 21.04.2010):</t>
   </si>
@@ -1005,6 +1005,12 @@
   </si>
   <si>
     <t>o. (N) Czy wypunktowanie ma być wyjustowane?</t>
+  </si>
+  <si>
+    <t>p. (N) Czy jeśli jest oczywiste, że tabela powstała w wyniku mkojego badania, to czy muszę w niej podawać źródło?</t>
+  </si>
+  <si>
+    <t>r. (N) jak indeksować dopiski? Czy w każdej stronie od początku?</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1125,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1127,9 +1133,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1167,7 +1173,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1237,7 +1243,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1411,15 +1417,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:K79"/>
+  <dimension ref="C5:K81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="113.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="115.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -1462,7 +1468,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <f>SUM(E9:E54)</f>
+        <f>SUM(E9:E56)</f>
         <v>30.6</v>
       </c>
     </row>
@@ -1502,7 +1508,7 @@
         <v>24</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H79" si="0">H10+IF(E11 = "", 0, E11)</f>
+        <f t="shared" ref="H11:H81" si="0">H10+IF(E11 = "", 0, E11)</f>
         <v>0.6</v>
       </c>
     </row>
@@ -1573,7 +1579,7 @@
         <v>0.5</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:E77" si="1">IF(D19 = "", "", 2*D19)</f>
+        <f t="shared" ref="E19:E79" si="1">IF(D19 = "", "", 2*D19)</f>
         <v>1</v>
       </c>
       <c r="H19">
@@ -1759,139 +1765,123 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="3:8">
-      <c r="C39" s="7"/>
-      <c r="H39">
-        <f>H31+IF(E39 = "", 0, E39)</f>
+    <row r="39" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C39" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C40" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8">
+      <c r="C41" s="7"/>
+      <c r="H41">
+        <f>H31+IF(E41 = "", 0, E41)</f>
         <v>8.6</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8">
-      <c r="C40" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="0"/>
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8">
-      <c r="C41" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H41">
-        <f t="shared" si="0"/>
-        <v>14.6</v>
       </c>
     </row>
     <row r="42" spans="3:8">
       <c r="C42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8">
+      <c r="C43" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8">
+      <c r="C44" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D42">
+      <c r="D44">
         <v>1.5</v>
       </c>
-      <c r="E42">
+      <c r="E44">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H42">
+      <c r="H44">
         <f t="shared" si="0"/>
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="43" spans="3:8">
-      <c r="C43" s="5" t="s">
+    <row r="45" spans="3:8">
+      <c r="C45" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E43" t="str">
+      <c r="E45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H43">
+      <c r="H45">
         <f t="shared" si="0"/>
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="44" spans="3:8">
-      <c r="C44" s="7" t="s">
+    <row r="46" spans="3:8">
+      <c r="C46" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D44">
+      <c r="D46">
         <v>3</v>
       </c>
-      <c r="E44">
+      <c r="E46">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="H44">
+      <c r="H46">
         <f t="shared" si="0"/>
         <v>23.6</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8">
-      <c r="C45" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="0"/>
-        <v>27.6</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8">
-      <c r="C46" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46">
-        <v>1.5</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="0"/>
-        <v>30.6</v>
       </c>
     </row>
     <row r="47" spans="3:8">
       <c r="C47" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>44</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>30.6</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="48" spans="3:8">
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48">
+        <v>1.5</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
         <v>3</v>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
@@ -1900,7 +1890,11 @@
     </row>
     <row r="49" spans="3:8">
       <c r="C49" s="7" t="s">
-        <v>20</v>
+        <v>46</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
@@ -1909,7 +1903,11 @@
     </row>
     <row r="50" spans="3:8">
       <c r="C50" s="7" t="s">
-        <v>47</v>
+        <v>3</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
@@ -1918,11 +1916,7 @@
     </row>
     <row r="51" spans="3:8">
       <c r="C51" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51" t="str">
-        <f t="shared" ref="E51:E52" si="2">IF(D51 = "", "", 2*D51)</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
@@ -1931,86 +1925,82 @@
     </row>
     <row r="52" spans="3:8">
       <c r="C52" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8">
+      <c r="C53" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" ref="E53:E54" si="2">IF(D53 = "", "", 2*D53)</f>
+        <v/>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="C54" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E52" t="str">
+      <c r="E54" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H52">
+      <c r="H54">
         <f t="shared" si="0"/>
         <v>30.6</v>
       </c>
     </row>
-    <row r="53" spans="3:8">
-      <c r="C53" s="7" t="s">
+    <row r="55" spans="3:8">
+      <c r="C55" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="3:8">
-      <c r="C54" s="4"/>
-      <c r="E54" t="str">
+    <row r="56" spans="3:8">
+      <c r="C56" s="4"/>
+      <c r="E56" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H54">
-        <f>H52+IF(E54 = "", 0, E54)</f>
+      <c r="H56">
+        <f>H54+IF(E56 = "", 0, E56)</f>
         <v>30.6</v>
       </c>
     </row>
-    <row r="55" spans="3:8" ht="18.75">
-      <c r="C55" s="1" t="s">
+    <row r="57" spans="3:8" ht="18.75">
+      <c r="C57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E55" t="str">
+      <c r="E57" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F55">
-        <f>SUM(E56:E71)</f>
+      <c r="F57">
+        <f>SUM(E58:E73)</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="H55">
+      <c r="H57">
         <f t="shared" si="0"/>
         <v>30.6</v>
       </c>
     </row>
-    <row r="56" spans="3:8">
-      <c r="C56" s="5" t="s">
+    <row r="58" spans="3:8">
+      <c r="C58" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D56">
+      <c r="D58">
         <v>0.3</v>
       </c>
-      <c r="E56">
+      <c r="E58">
         <f t="shared" si="1"/>
         <v>0.6</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="0"/>
-        <v>31.200000000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="3:8">
-      <c r="C57" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H57">
-        <f t="shared" si="0"/>
-        <v>31.200000000000003</v>
-      </c>
-    </row>
-    <row r="58" spans="3:8">
-      <c r="C58" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
@@ -2019,7 +2009,7 @@
     </row>
     <row r="59" spans="3:8">
       <c r="C59" s="7" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="1"/>
@@ -2032,60 +2022,60 @@
     </row>
     <row r="60" spans="3:8">
       <c r="C60" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>31.200000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8">
+      <c r="C61" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>31.200000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8">
+      <c r="C62" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E60" t="str">
+      <c r="E62" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H60">
+      <c r="H62">
         <f t="shared" si="0"/>
         <v>31.200000000000003</v>
       </c>
     </row>
-    <row r="61" spans="3:8">
-      <c r="C61" s="7"/>
-      <c r="H61">
+    <row r="63" spans="3:8">
+      <c r="C63" s="7"/>
+      <c r="H63">
         <f t="shared" si="0"/>
         <v>31.200000000000003</v>
       </c>
     </row>
-    <row r="62" spans="3:8">
-      <c r="C62" s="5" t="s">
+    <row r="64" spans="3:8">
+      <c r="C64" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D62">
+      <c r="D64">
         <v>0.5</v>
       </c>
-      <c r="E62">
+      <c r="E64">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="H62">
-        <f t="shared" si="0"/>
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="63" spans="3:8">
-      <c r="C63" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E63" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H63">
-        <f t="shared" si="0"/>
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="64" spans="3:8">
-      <c r="C64" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E64" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
@@ -2094,7 +2084,7 @@
     </row>
     <row r="65" spans="3:8">
       <c r="C65" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="1"/>
@@ -2107,7 +2097,7 @@
     </row>
     <row r="66" spans="3:8">
       <c r="C66" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="1"/>
@@ -2120,7 +2110,7 @@
     </row>
     <row r="67" spans="3:8">
       <c r="C67" s="7" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="1"/>
@@ -2133,131 +2123,125 @@
     </row>
     <row r="68" spans="3:8">
       <c r="C68" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H68">
+        <f t="shared" si="0"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8">
+      <c r="C69" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H69">
+        <f t="shared" si="0"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8">
+      <c r="C70" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H68">
+      <c r="H70">
         <f t="shared" si="0"/>
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="69" spans="3:8">
-      <c r="C69" s="7"/>
-      <c r="H69">
+    <row r="71" spans="3:8">
+      <c r="C71" s="7"/>
+      <c r="H71">
         <f t="shared" si="0"/>
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="70" spans="3:8">
-      <c r="C70" s="5" t="s">
+    <row r="72" spans="3:8">
+      <c r="C72" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D70">
+      <c r="D72">
         <v>0.4</v>
       </c>
-      <c r="E70">
+      <c r="E72">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="H70">
+      <c r="H72">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="3:8">
-      <c r="C71" s="4"/>
-      <c r="E71" t="str">
+    <row r="73" spans="3:8">
+      <c r="C73" s="4"/>
+      <c r="E73" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H71">
+      <c r="H73">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="3:8" ht="18.75">
-      <c r="C72" s="1" t="s">
+    <row r="74" spans="3:8" ht="18.75">
+      <c r="C74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E72" t="str">
+      <c r="E74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F72">
-        <f>SUM(E73:E78)</f>
+      <c r="F74">
+        <f>SUM(E75:E80)</f>
         <v>4.2</v>
       </c>
-      <c r="H72">
+      <c r="H74">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="3:8">
-      <c r="C73" s="5" t="s">
+    <row r="75" spans="3:8">
+      <c r="C75" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D73">
+      <c r="D75">
         <v>0.6</v>
       </c>
-      <c r="E73">
+      <c r="E75">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="H73">
+      <c r="H75">
         <f t="shared" si="0"/>
         <v>34.200000000000003</v>
-      </c>
-    </row>
-    <row r="74" spans="3:8">
-      <c r="C74" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D74">
-        <v>0.4</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="75" spans="3:8">
-      <c r="C75" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75">
-        <v>0.5</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="0"/>
-        <v>36</v>
       </c>
     </row>
     <row r="76" spans="3:8">
       <c r="C76" s="3" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D76">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E76">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H76">
         <f t="shared" si="0"/>
-        <v>36.200000000000003</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="3:8">
       <c r="C77" s="3" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D77">
         <v>0.5</v>
@@ -2268,18 +2252,50 @@
       </c>
       <c r="H77">
         <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8">
+      <c r="C78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78">
+        <v>0.1</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="0"/>
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8">
+      <c r="C79" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D79">
+        <v>0.5</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="0"/>
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="78" spans="3:8">
-      <c r="C78" s="4"/>
-      <c r="H78">
+    <row r="80" spans="3:8">
+      <c r="C80" s="4"/>
+      <c r="H80">
         <f t="shared" si="0"/>
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="79" spans="3:8">
-      <c r="H79">
+    <row r="81" spans="8:8">
+      <c r="H81">
         <f t="shared" si="0"/>
         <v>37.200000000000003</v>
       </c>

--- a/CUDA/Resources/Jeszcze do zrobienia.xlsx
+++ b/CUDA/Resources/Jeszcze do zrobienia.xlsx
@@ -631,30 +631,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(Sprawdź ortografie, gramatykę) </t>
-    </r>
-  </si>
-  <si>
     <t>d. Sprawdź, czy wszystkie elementy bibliograficzne typu PDF, maja w odnośniki numer strony</t>
   </si>
   <si>
@@ -884,9 +860,6 @@
     <t>e. (N) Nie ma być tezy? W dokumencie teza jest zalecana.</t>
   </si>
   <si>
-    <t>f. (N) Czy w tabelach jest taka sama wielkość czcionki jak gdzie indziej? Czy z wyjustowaniem?</t>
-  </si>
-  <si>
     <t>i. (N) Czy po punkcie w wypunktowaniu dodawać kropkę?</t>
   </si>
   <si>
@@ -1011,6 +984,33 @@
   </si>
   <si>
     <t>r. (N) jak indeksować dopiski? Czy w każdej stronie od początku?</t>
+  </si>
+  <si>
+    <t>f. (N) Czy w tabelach jest taka sama wielkość czcionki jak gdzie indziej? Może Arial? Czy z wyjustowaniem?</t>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Sprawdź ortografię, gramatykę) </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1125,7 +1125,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1133,9 +1133,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1173,7 +1173,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1243,7 +1243,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1419,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C5:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="18" spans="3:11">
       <c r="C18" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="3:11">
@@ -1624,7 +1624,7 @@
     </row>
     <row r="22" spans="3:11">
       <c r="C22" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="23" spans="3:11">
       <c r="C23" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="25" spans="3:11">
       <c r="C25" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="1"/>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="26" spans="3:11" ht="30">
       <c r="C26" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="28" spans="3:11">
       <c r="C28" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="29" spans="3:11">
       <c r="C29" s="7" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="31" spans="3:11" ht="30">
       <c r="C31" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
@@ -1732,47 +1732,47 @@
     </row>
     <row r="32" spans="3:11">
       <c r="C32" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="30">
       <c r="C33" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="30">
       <c r="C34" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="30">
       <c r="C35" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="3:8">
       <c r="C36" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="3:8">
       <c r="C37" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="3:8">
       <c r="C38" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="14.25" customHeight="1">
       <c r="C39" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="3:8" ht="14.25" customHeight="1">
       <c r="C40" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="3:8">
@@ -1890,7 +1890,7 @@
     </row>
     <row r="49" spans="3:8">
       <c r="C49" s="7" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="1"/>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="52" spans="3:8">
       <c r="C52" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="53" spans="3:8">
       <c r="C53" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" ref="E53:E54" si="2">IF(D53 = "", "", 2*D53)</f>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="54" spans="3:8">
       <c r="C54" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="2"/>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="55" spans="3:8">
       <c r="C55" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="3:8">
@@ -2035,7 +2035,7 @@
     </row>
     <row r="61" spans="3:8">
       <c r="C61" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="1"/>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="64" spans="3:8">
       <c r="C64" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D64">
         <v>0.5</v>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="65" spans="3:8">
       <c r="C65" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="1"/>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="66" spans="3:8">
       <c r="C66" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="1"/>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="67" spans="3:8">
       <c r="C67" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="1"/>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="68" spans="3:8">
       <c r="C68" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="1"/>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="70" spans="3:8">
       <c r="C70" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H70">
         <f t="shared" si="0"/>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="76" spans="3:8">
       <c r="C76" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D76">
         <v>0.4</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="79" spans="3:8">
       <c r="C79" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D79">
         <v>0.5</v>

--- a/CUDA/Resources/Jeszcze do zrobienia.xlsx
+++ b/CUDA/Resources/Jeszcze do zrobienia.xlsx
@@ -322,12 +322,6 @@
     <t>W zakończeniu przytacza się jeszcze raz cel pracy (ogólnie jest więcej rzeczy opisanych - przeczytaj!)</t>
   </si>
   <si>
-    <t>a. Zapytaj czy podpisy tabel i rysunków są "pod" czy "nad".</t>
-  </si>
-  <si>
-    <t>d. Gdzie spis ilustracji/tabel?</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Podpisy tabel: 
 </t>
@@ -358,9 +352,6 @@
     </r>
   </si>
   <si>
-    <t>g. Czy w nazwach rozdziałów mogą być skróty? Czy ma być słowniczek skrótów i zagranicznych słów?</t>
-  </si>
-  <si>
     <t>Pomnożone</t>
   </si>
   <si>
@@ -757,10 +748,6 @@
     </r>
   </si>
   <si>
-    <t>h. Jak opisywać skróty typu FLOPS? W przypisie dolnym rozszerzenie skrótu (czy w nawiasie)? 
-Czy dodać też polskie tłumaczenie?</t>
-  </si>
-  <si>
     <r>
       <t>e.</t>
     </r>
@@ -849,39 +836,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>      (N) Niektóre ilustracje, np. diagram klas, będą raczej nieczytelne jeśli nie będą wychodzić za marginesy. Zdecydowanie, co zrobić ze zbyt dużymi ilustracjami.</t>
-    </r>
-  </si>
-  <si>
-    <t>c. (N) Jaka ma być bibliografia - jak zrobić, żeby odwołania były z nawiasami kwadratowymi. 
-Co, jeśli jeden autor z kilkoma utworami (Np.. NVIDIA)? Czy Ustawić, żeby wyświetlało tytuł?</t>
-  </si>
-  <si>
-    <t>e. (N) Nie ma być tezy? W dokumencie teza jest zalecana.</t>
-  </si>
-  <si>
-    <t>i. (N) Czy po punkcie w wypunktowaniu dodawać kropkę?</t>
-  </si>
-  <si>
-    <t>j. (N) Czy przesunąć kernel i wywołanie go do dodatku? A co z formatem plików CSV/XML? Czy listę plików też przenieść?</t>
-  </si>
-  <si>
-    <t>k. (N) "W poniższej tabeli jest opisana sekwancja do wygenerowania plików XML zestawu testów i sieci MLP. " - czy to tez wrzucic do zalacznika?</t>
-  </si>
-  <si>
-    <t>l. (N) W rozdziale "5.1.3. Struktura plików danych" - jest wycinek z kodu, który jest bardzo podobny do diagramu "5.1.2.3. Diagram sekwencji uczenia sieci". Czy mają być w jednym miejscu, a jeśli tak, to gdzie?</t>
-  </si>
-  <si>
-    <r>
-      <t>b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -971,24 +925,6 @@
     <t>h. Zewnątrzne programy, biblioteki - physx, matlab, TinyXML (Styl: Podkeślenie)</t>
   </si>
   <si>
-    <t>m. Czy obrazki mają być wyśrodkowane, czy z lewej strony?</t>
-  </si>
-  <si>
-    <t>n. (N) Czy nowo wprowadzane pojęcia powinny być oznaczane podkreśleniem?</t>
-  </si>
-  <si>
-    <t>o. (N) Czy wypunktowanie ma być wyjustowane?</t>
-  </si>
-  <si>
-    <t>p. (N) Czy jeśli jest oczywiste, że tabela powstała w wyniku mkojego badania, to czy muszę w niej podawać źródło?</t>
-  </si>
-  <si>
-    <t>r. (N) jak indeksować dopiski? Czy w każdej stronie od początku?</t>
-  </si>
-  <si>
-    <t>f. (N) Czy w tabelach jest taka sama wielkość czcionki jak gdzie indziej? Może Arial? Czy z wyjustowaniem?</t>
-  </si>
-  <si>
     <r>
       <t>a.</t>
     </r>
@@ -1010,6 +946,317 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">(Sprawdź ortografię, gramatykę) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a. Zapytaj czy podpisy tabel i rysunków są "pod" czy "nad". </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tak jak jest w dokumencie</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b.  (N) Niektóre ilustracje, np. diagram klas, będą raczej nieczytelne jeśli nie będą wychodzić za marginesy. 
+Zdecydowanie, co zrobić ze zbyt dużymi ilustracjami.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Wymyślić coś. Ew. podzielić na kilka</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">c. (N) Jaka ma być bibliografia - jak zrobić, żeby odwołania były z nawiasami kwadratowymi. 
+Co, jeśli jeden autor z kilkoma utworami (Np.. NVIDIA)? Czy Ustawić, żeby wyświetlało tytuł? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Musi być unikalny identyfikator (NVI2), albo indeksować po numerach.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">d. Gdzie spis ilustracji/tabel? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Na samym końcu pracy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">e. (N) Nie ma być tezy? W dokumencie teza jest zalecana. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nie ma być</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">f. (N) Czy w tabelach jest taka sama wielkość czcionki jak gdzie indziej? Może Arial? Czy z wyjustowaniem? 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Może być inna. Ważne, żeby się za bardzo nie różniła.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">g. Czy w nazwach rozdziałów mogą być skróty? Czy ma być słowniczek skrótów i zagranicznych słów?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Skróty powinny być wcześniej wytłumaczone.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">h. Jak opisywać skróty typu FLOPS? W przypisie dolnym rozszerzenie skrótu (czy w nawiasie)? 
+Czy dodać też polskie tłumaczenie?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Jeśli są znane, to nie tłumaczyć. Jeśli mniej znane, to w przypisie - (zauważ pochylenie): ang. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>personal computer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">i. (N) Czy po punkcie w wypunktowaniu dodawać kropkę?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jeśli bez zdania, to przecinki, na końcu kropka. Jeśli zdania, to wielką literą, średniki, na końcu kropka.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">j. (N) Czy przesunąć kernel i wywołanie go do dodatku? A co z formatem plików CSV/XML? Czy listę plików też przenieść?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spróbuj kernel umieścić w treści. Formaty plików na dole.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k. (N) "W poniższej tabeli jest opisana sekwancja do wygenerowania plików XML zestawu testów i sieci MLP. " - czy to tez wrzucic do zalacznika? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nie, niech zostanie</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">l. (N) W rozdziale "5.1.3. Struktura plików danych" - jest wycinek z kodu, który jest bardzo podobny do diagramu "5.1.2.3. Diagram sekwencji uczenia sieci". Czy mają być w jednym miejscu, a jeśli tak, to gdzie? 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mogą zostać, ale sprzwdż, czy to wygląda OK.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">m. Czy obrazki mają być wyśrodkowane, czy z lewej strony? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wyśrodkowane</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. (N) Czy nowo wprowadzane pojęcia powinny być oznaczane podkreśleniem? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mogą być</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">o. (N) Czy wypunktowanie ma być wyjustowane? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Może być</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">p. (N) Czy jeśli jest oczywiste, że tabela powstała w wyniku mojego badania, to czy muszę w niej podawać źródło? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nie</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">r. (N) Jak indeksować dopiski? Czy w każdej stronie od początku? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Indeksowanie dla całej pracy</t>
     </r>
   </si>
 </sst>
@@ -1017,7 +1264,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1062,6 +1309,25 @@
       <family val="1"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1420,7 +1686,7 @@
   <dimension ref="C5:K81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1438,7 +1704,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -1474,7 +1740,7 @@
     </row>
     <row r="9" spans="3:11">
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>0.3</v>
@@ -1514,7 +1780,7 @@
     </row>
     <row r="12" spans="3:11" ht="60">
       <c r="C12" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
@@ -1568,12 +1834,12 @@
     </row>
     <row r="18" spans="3:11">
       <c r="C18" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="3:11">
       <c r="C19" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>0.5</v>
@@ -1595,7 +1861,7 @@
     </row>
     <row r="20" spans="3:11">
       <c r="C20" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="1"/>
@@ -1608,7 +1874,7 @@
     </row>
     <row r="21" spans="3:11">
       <c r="C21" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D21">
         <v>0.5</v>
@@ -1624,7 +1890,7 @@
     </row>
     <row r="22" spans="3:11">
       <c r="C22" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1640,7 +1906,7 @@
     </row>
     <row r="23" spans="3:11">
       <c r="C23" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1656,16 +1922,16 @@
     </row>
     <row r="24" spans="3:11">
       <c r="C24" s="7" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
         <v>8.6</v>
       </c>
     </row>
-    <row r="25" spans="3:11">
-      <c r="C25" s="7" t="s">
-        <v>58</v>
+    <row r="25" spans="3:11" ht="30">
+      <c r="C25" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="1"/>
@@ -1676,9 +1942,9 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="26" spans="3:11" ht="30">
+    <row r="26" spans="3:11" ht="45">
       <c r="C26" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
@@ -1687,7 +1953,7 @@
     </row>
     <row r="27" spans="3:11">
       <c r="C27" s="7" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
@@ -1696,83 +1962,83 @@
     </row>
     <row r="28" spans="3:11">
       <c r="C28" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
         <v>8.6</v>
       </c>
     </row>
-    <row r="29" spans="3:11">
-      <c r="C29" s="7" t="s">
-        <v>75</v>
+    <row r="29" spans="3:11" ht="30">
+      <c r="C29" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
         <v>8.6</v>
       </c>
     </row>
-    <row r="30" spans="3:11">
-      <c r="C30" s="7" t="s">
-        <v>33</v>
+    <row r="30" spans="3:11" ht="30">
+      <c r="C30" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
         <v>8.6</v>
       </c>
     </row>
-    <row r="31" spans="3:11" ht="30">
+    <row r="31" spans="3:11" ht="45">
       <c r="C31" s="9" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
         <v>8.6</v>
       </c>
     </row>
-    <row r="32" spans="3:11">
+    <row r="32" spans="3:11" ht="30">
       <c r="C32" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" ht="30">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" ht="45">
       <c r="C33" s="9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="30">
       <c r="C34" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" ht="30">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" ht="45">
       <c r="C35" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="3:8">
       <c r="C36" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="3:8">
       <c r="C37" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="3:8">
       <c r="C38" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" ht="14.25" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" ht="30">
       <c r="C39" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="3:8" ht="14.25" customHeight="1">
       <c r="C40" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="3:8">
@@ -1784,7 +2050,7 @@
     </row>
     <row r="42" spans="3:8">
       <c r="C42" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D42">
         <v>3</v>
@@ -1800,7 +2066,7 @@
     </row>
     <row r="43" spans="3:8">
       <c r="C43" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="1"/>
@@ -1813,7 +2079,7 @@
     </row>
     <row r="44" spans="3:8">
       <c r="C44" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D44">
         <v>1.5</v>
@@ -1829,7 +2095,7 @@
     </row>
     <row r="45" spans="3:8">
       <c r="C45" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="1"/>
@@ -1842,7 +2108,7 @@
     </row>
     <row r="46" spans="3:8">
       <c r="C46" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -1858,7 +2124,7 @@
     </row>
     <row r="47" spans="3:8">
       <c r="C47" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -1874,7 +2140,7 @@
     </row>
     <row r="48" spans="3:8">
       <c r="C48" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D48">
         <v>1.5</v>
@@ -1890,7 +2156,7 @@
     </row>
     <row r="49" spans="3:8">
       <c r="C49" s="7" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="1"/>
@@ -1925,7 +2191,7 @@
     </row>
     <row r="52" spans="3:8">
       <c r="C52" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
@@ -1934,7 +2200,7 @@
     </row>
     <row r="53" spans="3:8">
       <c r="C53" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" ref="E53:E54" si="2">IF(D53 = "", "", 2*D53)</f>
@@ -1947,7 +2213,7 @@
     </row>
     <row r="54" spans="3:8">
       <c r="C54" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="2"/>
@@ -1960,7 +2226,7 @@
     </row>
     <row r="55" spans="3:8">
       <c r="C55" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="3:8">
@@ -2035,7 +2301,7 @@
     </row>
     <row r="61" spans="3:8">
       <c r="C61" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="1"/>
@@ -2068,7 +2334,7 @@
     </row>
     <row r="64" spans="3:8">
       <c r="C64" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D64">
         <v>0.5</v>
@@ -2084,7 +2350,7 @@
     </row>
     <row r="65" spans="3:8">
       <c r="C65" s="7" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="1"/>
@@ -2097,7 +2363,7 @@
     </row>
     <row r="66" spans="3:8">
       <c r="C66" s="7" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="1"/>
@@ -2110,7 +2376,7 @@
     </row>
     <row r="67" spans="3:8">
       <c r="C67" s="7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="1"/>
@@ -2123,7 +2389,7 @@
     </row>
     <row r="68" spans="3:8">
       <c r="C68" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="1"/>
@@ -2149,7 +2415,7 @@
     </row>
     <row r="70" spans="3:8">
       <c r="C70" s="7" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="H70">
         <f t="shared" si="0"/>
@@ -2225,7 +2491,7 @@
     </row>
     <row r="76" spans="3:8">
       <c r="C76" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D76">
         <v>0.4</v>
@@ -2273,7 +2539,7 @@
     </row>
     <row r="79" spans="3:8">
       <c r="C79" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D79">
         <v>0.5</v>

--- a/CUDA/Resources/Jeszcze do zrobienia.xlsx
+++ b/CUDA/Resources/Jeszcze do zrobienia.xlsx
@@ -1123,6 +1123,126 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">k. (N) "W poniższej tabeli jest opisana sekwancja do wygenerowania plików XML zestawu testów i sieci MLP. " - czy to tez wrzucic do zalacznika? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nie, niech zostanie</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">l. (N) W rozdziale "5.1.3. Struktura plików danych" - jest wycinek z kodu, który jest bardzo podobny do diagramu "5.1.2.3. Diagram sekwencji uczenia sieci". Czy mają być w jednym miejscu, a jeśli tak, to gdzie? 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mogą zostać, ale sprzwdż, czy to wygląda OK.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">m. Czy obrazki mają być wyśrodkowane, czy z lewej strony? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wyśrodkowane</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. (N) Czy nowo wprowadzane pojęcia powinny być oznaczane podkreśleniem? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mogą być</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">o. (N) Czy wypunktowanie ma być wyjustowane? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Może być</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">p. (N) Czy jeśli jest oczywiste, że tabela powstała w wyniku mojego badania, to czy muszę w niej podawać źródło? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nie</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">r. (N) Jak indeksować dopiski? Czy w każdej stronie od początku? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Indeksowanie dla całej pracy</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">j. (N) Czy przesunąć kernel i wywołanie go do dodatku? A co z formatem plików CSV/XML? Czy listę plików też przenieść?
 </t>
     </r>
@@ -1136,127 +1256,19 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Spróbuj kernel umieścić w treści. Formaty plików na dole.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">k. (N) "W poniższej tabeli jest opisana sekwancja do wygenerowania plików XML zestawu testów i sieci MLP. " - czy to tez wrzucic do zalacznika? </t>
+      <t xml:space="preserve">Spróbuj kernel umieścić w treści. Formaty plików na dole. </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Nie, niech zostanie</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">l. (N) W rozdziale "5.1.3. Struktura plików danych" - jest wycinek z kodu, który jest bardzo podobny do diagramu "5.1.2.3. Diagram sekwencji uczenia sieci". Czy mają być w jednym miejscu, a jeśli tak, to gdzie? 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mogą zostać, ale sprzwdż, czy to wygląda OK.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">m. Czy obrazki mają być wyśrodkowane, czy z lewej strony? </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Wyśrodkowane</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">n. (N) Czy nowo wprowadzane pojęcia powinny być oznaczane podkreśleniem? </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mogą być</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">o. (N) Czy wypunktowanie ma być wyjustowane? </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Może być</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">p. (N) Czy jeśli jest oczywiste, że tabela powstała w wyniku mojego badania, to czy muszę w niej podawać źródło? </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nie</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">r. (N) Jak indeksować dopiski? Czy w każdej stronie od początku? </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Indeksowanie dla całej pracy</t>
+      <t>Ale wyżej daj odnośniki do tego, co w załącznikach!</t>
     </r>
   </si>
 </sst>
@@ -1264,7 +1276,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1331,6 +1343,15 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1685,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C5:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2003,42 +2024,42 @@
     </row>
     <row r="33" spans="3:8" ht="45">
       <c r="C33" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="30">
       <c r="C34" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="45">
       <c r="C35" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="3:8">
       <c r="C36" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="3:8">
       <c r="C37" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="3:8">
       <c r="C38" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="30">
       <c r="C39" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="3:8" ht="14.25" customHeight="1">
       <c r="C40" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="3:8">

--- a/CUDA/Resources/Jeszcze do zrobienia.xlsx
+++ b/CUDA/Resources/Jeszcze do zrobienia.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Rzeczy do zrobienia jeszcze (40 dni od 21.04.2010):</t>
   </si>
@@ -1270,6 +1270,58 @@
       </rPr>
       <t>Ale wyżej daj odnośniki do tego, co w załącznikach!</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>s. Jak jest "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-ty", to "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" ma być pochylone!</t>
+    </r>
+  </si>
+  <si>
+    <t>t. Tabele z kodem mają być przezroczyste</t>
   </si>
 </sst>
 </file>
@@ -1704,10 +1756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:K81"/>
+  <dimension ref="C5:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1755,7 +1807,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <f>SUM(E9:E56)</f>
+        <f>SUM(E9:E58)</f>
         <v>30.6</v>
       </c>
     </row>
@@ -1795,7 +1847,7 @@
         <v>24</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H81" si="0">H10+IF(E11 = "", 0, E11)</f>
+        <f t="shared" ref="H11:H83" si="0">H10+IF(E11 = "", 0, E11)</f>
         <v>0.6</v>
       </c>
     </row>
@@ -1866,7 +1918,7 @@
         <v>0.5</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:E79" si="1">IF(D19 = "", "", 2*D19)</f>
+        <f t="shared" ref="E19:E81" si="1">IF(D19 = "", "", 2*D19)</f>
         <v>1</v>
       </c>
       <c r="H19">
@@ -2062,139 +2114,123 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="3:8">
-      <c r="C41" s="7"/>
-      <c r="H41">
-        <f>H31+IF(E41 = "", 0, E41)</f>
+    <row r="41" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C41" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C42" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8">
+      <c r="C43" s="7"/>
+      <c r="H43">
+        <f>H31+IF(E43 = "", 0, E43)</f>
         <v>8.6</v>
-      </c>
-    </row>
-    <row r="42" spans="3:8">
-      <c r="C42" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="0"/>
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8">
-      <c r="C43" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H43">
-        <f t="shared" si="0"/>
-        <v>14.6</v>
       </c>
     </row>
     <row r="44" spans="3:8">
       <c r="C44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8">
+      <c r="C45" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8">
+      <c r="C46" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D44">
+      <c r="D46">
         <v>1.5</v>
       </c>
-      <c r="E44">
+      <c r="E46">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H44">
+      <c r="H46">
         <f t="shared" si="0"/>
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="45" spans="3:8">
-      <c r="C45" s="5" t="s">
+    <row r="47" spans="3:8">
+      <c r="C47" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E45" t="str">
+      <c r="E47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H45">
+      <c r="H47">
         <f t="shared" si="0"/>
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="46" spans="3:8">
-      <c r="C46" s="7" t="s">
+    <row r="48" spans="3:8">
+      <c r="C48" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D46">
+      <c r="D48">
         <v>3</v>
       </c>
-      <c r="E46">
+      <c r="E48">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="H46">
+      <c r="H48">
         <f t="shared" si="0"/>
         <v>23.6</v>
-      </c>
-    </row>
-    <row r="47" spans="3:8">
-      <c r="C47" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="0"/>
-        <v>27.6</v>
-      </c>
-    </row>
-    <row r="48" spans="3:8">
-      <c r="C48" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48">
-        <v>1.5</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="0"/>
-        <v>30.6</v>
       </c>
     </row>
     <row r="49" spans="3:8">
       <c r="C49" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E49" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>41</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>30.6</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="50" spans="3:8">
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50">
+        <v>1.5</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
         <v>3</v>
-      </c>
-      <c r="E50" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
@@ -2203,7 +2239,11 @@
     </row>
     <row r="51" spans="3:8">
       <c r="C51" s="7" t="s">
-        <v>20</v>
+        <v>59</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
@@ -2212,7 +2252,11 @@
     </row>
     <row r="52" spans="3:8">
       <c r="C52" s="7" t="s">
-        <v>43</v>
+        <v>3</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
@@ -2221,11 +2265,7 @@
     </row>
     <row r="53" spans="3:8">
       <c r="C53" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E53" t="str">
-        <f t="shared" ref="E53:E54" si="2">IF(D53 = "", "", 2*D53)</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
@@ -2234,86 +2274,82 @@
     </row>
     <row r="54" spans="3:8">
       <c r="C54" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="C55" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" ref="E55:E56" si="2">IF(D55 = "", "", 2*D55)</f>
+        <v/>
+      </c>
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8">
+      <c r="C56" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E54" t="str">
+      <c r="E56" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H54">
+      <c r="H56">
         <f t="shared" si="0"/>
         <v>30.6</v>
       </c>
     </row>
-    <row r="55" spans="3:8">
-      <c r="C55" s="7" t="s">
+    <row r="57" spans="3:8">
+      <c r="C57" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="3:8">
-      <c r="C56" s="4"/>
-      <c r="E56" t="str">
+    <row r="58" spans="3:8">
+      <c r="C58" s="4"/>
+      <c r="E58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H56">
-        <f>H54+IF(E56 = "", 0, E56)</f>
+      <c r="H58">
+        <f>H56+IF(E58 = "", 0, E58)</f>
         <v>30.6</v>
       </c>
     </row>
-    <row r="57" spans="3:8" ht="18.75">
-      <c r="C57" s="1" t="s">
+    <row r="59" spans="3:8" ht="18.75">
+      <c r="C59" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E57" t="str">
+      <c r="E59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F57">
-        <f>SUM(E58:E73)</f>
+      <c r="F59">
+        <f>SUM(E60:E75)</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="H57">
+      <c r="H59">
         <f t="shared" si="0"/>
         <v>30.6</v>
       </c>
     </row>
-    <row r="58" spans="3:8">
-      <c r="C58" s="5" t="s">
+    <row r="60" spans="3:8">
+      <c r="C60" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D58">
+      <c r="D60">
         <v>0.3</v>
       </c>
-      <c r="E58">
+      <c r="E60">
         <f t="shared" si="1"/>
         <v>0.6</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="0"/>
-        <v>31.200000000000003</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8">
-      <c r="C59" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H59">
-        <f t="shared" si="0"/>
-        <v>31.200000000000003</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8">
-      <c r="C60" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
@@ -2322,7 +2358,7 @@
     </row>
     <row r="61" spans="3:8">
       <c r="C61" s="7" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="1"/>
@@ -2335,60 +2371,60 @@
     </row>
     <row r="62" spans="3:8">
       <c r="C62" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>31.200000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8">
+      <c r="C63" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>31.200000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8">
+      <c r="C64" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E62" t="str">
+      <c r="E64" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H62">
+      <c r="H64">
         <f t="shared" si="0"/>
         <v>31.200000000000003</v>
       </c>
     </row>
-    <row r="63" spans="3:8">
-      <c r="C63" s="7"/>
-      <c r="H63">
+    <row r="65" spans="3:8">
+      <c r="C65" s="7"/>
+      <c r="H65">
         <f t="shared" si="0"/>
         <v>31.200000000000003</v>
       </c>
     </row>
-    <row r="64" spans="3:8">
-      <c r="C64" s="5" t="s">
+    <row r="66" spans="3:8">
+      <c r="C66" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D64">
+      <c r="D66">
         <v>0.5</v>
       </c>
-      <c r="E64">
+      <c r="E66">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="H64">
-        <f t="shared" si="0"/>
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="65" spans="3:8">
-      <c r="C65" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E65" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H65">
-        <f t="shared" si="0"/>
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="66" spans="3:8">
-      <c r="C66" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E66" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="H66">
         <f t="shared" si="0"/>
@@ -2397,7 +2433,7 @@
     </row>
     <row r="67" spans="3:8">
       <c r="C67" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="1"/>
@@ -2410,7 +2446,7 @@
     </row>
     <row r="68" spans="3:8">
       <c r="C68" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="1"/>
@@ -2423,7 +2459,7 @@
     </row>
     <row r="69" spans="3:8">
       <c r="C69" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="1"/>
@@ -2436,131 +2472,125 @@
     </row>
     <row r="70" spans="3:8">
       <c r="C70" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H70">
+        <f t="shared" si="0"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8">
+      <c r="C71" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H71">
+        <f t="shared" si="0"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8">
+      <c r="C72" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H70">
+      <c r="H72">
         <f t="shared" si="0"/>
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="71" spans="3:8">
-      <c r="C71" s="7"/>
-      <c r="H71">
+    <row r="73" spans="3:8">
+      <c r="C73" s="7"/>
+      <c r="H73">
         <f t="shared" si="0"/>
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="72" spans="3:8">
-      <c r="C72" s="5" t="s">
+    <row r="74" spans="3:8">
+      <c r="C74" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D72">
+      <c r="D74">
         <v>0.4</v>
       </c>
-      <c r="E72">
+      <c r="E74">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="H72">
+      <c r="H74">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="3:8">
-      <c r="C73" s="4"/>
-      <c r="E73" t="str">
+    <row r="75" spans="3:8">
+      <c r="C75" s="4"/>
+      <c r="E75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H73">
+      <c r="H75">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="3:8" ht="18.75">
-      <c r="C74" s="1" t="s">
+    <row r="76" spans="3:8" ht="18.75">
+      <c r="C76" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E74" t="str">
+      <c r="E76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F74">
-        <f>SUM(E75:E80)</f>
+      <c r="F76">
+        <f>SUM(E77:E82)</f>
         <v>4.2</v>
       </c>
-      <c r="H74">
+      <c r="H76">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="3:8">
-      <c r="C75" s="5" t="s">
+    <row r="77" spans="3:8">
+      <c r="C77" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D75">
+      <c r="D77">
         <v>0.6</v>
       </c>
-      <c r="E75">
+      <c r="E77">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="H75">
+      <c r="H77">
         <f t="shared" si="0"/>
         <v>34.200000000000003</v>
-      </c>
-    </row>
-    <row r="76" spans="3:8">
-      <c r="C76" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D76">
-        <v>0.4</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="77" spans="3:8">
-      <c r="C77" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77">
-        <v>0.5</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="0"/>
-        <v>36</v>
       </c>
     </row>
     <row r="78" spans="3:8">
       <c r="C78" s="3" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D78">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E78">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H78">
         <f t="shared" si="0"/>
-        <v>36.200000000000003</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="3:8">
       <c r="C79" s="3" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="D79">
         <v>0.5</v>
@@ -2571,18 +2601,50 @@
       </c>
       <c r="H79">
         <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8">
+      <c r="C80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80">
+        <v>0.1</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="0"/>
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8">
+      <c r="C81" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81">
+        <v>0.5</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="0"/>
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="80" spans="3:8">
-      <c r="C80" s="4"/>
-      <c r="H80">
+    <row r="82" spans="3:8">
+      <c r="C82" s="4"/>
+      <c r="H82">
         <f t="shared" si="0"/>
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="81" spans="8:8">
-      <c r="H81">
+    <row r="83" spans="3:8">
+      <c r="H83">
         <f t="shared" si="0"/>
         <v>37.200000000000003</v>
       </c>

--- a/CUDA/Resources/Jeszcze do zrobienia.xlsx
+++ b/CUDA/Resources/Jeszcze do zrobienia.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Rzeczy do zrobienia jeszcze (40 dni od 21.04.2010):</t>
   </si>
@@ -26,6 +26,33 @@
     <t>Główne (15.3)</t>
   </si>
   <si>
+    <t>Formatowanie, czcionki (1.2)</t>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spisu ilustracji</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>b.</t>
     </r>
@@ -46,15 +73,36 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Zastosuj odpowiednie style (poniżej)</t>
-    </r>
-  </si>
-  <si>
-    <t>Formatowanie, czcionki (1.2)</t>
-  </si>
-  <si>
-    <r>
-      <t>a.</t>
+      <t>spisu tabel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bibliografii</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>g.</t>
     </r>
     <r>
       <rPr>
@@ -73,78 +121,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>spisu ilustracji</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>spisu tabel</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>d.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bibliografii</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>g.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Teksty w tabelach</t>
     </r>
   </si>
@@ -153,30 +129,6 @@
   </si>
   <si>
     <r>
-      <t>9.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wybranie dobrej czcionki i ustawienie w odpowiednim miejscu: </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>11.</t>
     </r>
     <r>
@@ -221,31 +173,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Napisanie dobrze tych 3 pierwszych stron </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>14.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Dodanie twardych spacji (ctrl+Shift+spacja) </t>
     </r>
   </si>
   <si>
@@ -674,7 +601,7 @@
   </si>
   <si>
     <r>
-      <t>13.</t>
+      <t>b.</t>
     </r>
     <r>
       <rPr>
@@ -684,42 +611,95 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Tłumaczenie na angielski wstępu </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>16.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sprawdź ortografie, gramatykę (końcowo, żeby nie było błędów)</t>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wewnątrz rozdziału o CNL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>e.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Sprawdź ortografie, gramatykę) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Zastosuj odpowiednie style (poniżej)</t>
+    </r>
+  </si>
+  <si>
+    <t>g. Sprawdz adjustację obrazów</t>
+  </si>
+  <si>
+    <t>Tabele - mają grubsze obramowanie tabeli niż między komórkami</t>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pójdź do Wieslawa Pietruszkiewicza i zapytaj o ewent.</t>
     </r>
   </si>
   <si>
@@ -728,7 +708,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
@@ -744,7 +723,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Wewnątrz rozdziału o CNL</t>
+      <t>nazwy  klas, metod, funkcji (Styl: Klasa metoda funkcja)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nazwy plików (Styl: Nazwa pliku)</t>
     </r>
   </si>
   <si>
@@ -758,17 +761,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(Sprawdź ortografie, gramatykę) </t>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>słowa kluczowe C/C++ (jest ich malo, wiec Styl: Podkreslenie)</t>
     </r>
   </si>
   <si>
@@ -782,132 +785,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Zastosuj odpowiednie style (poniżej)</t>
-    </r>
-  </si>
-  <si>
-    <t>g. Sprawdz adjustację obrazów</t>
-  </si>
-  <si>
-    <t>Tabele - mają grubsze obramowanie tabeli niż między komórkami</t>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pójdź do Wieslawa Pietruszkiewicza i zapytaj o ewent.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nazwy  klas, metod, funkcji (Styl: Klasa metoda funkcja)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nazwy plików (Styl: Nazwa pliku)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>e.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>słowa kluczowe C/C++ (jest ich malo, wiec Styl: Podkreslenie)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>f.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t xml:space="preserve">        </t>
     </r>
     <r>
@@ -923,30 +800,6 @@
   </si>
   <si>
     <t>h. Zewnątrzne programy, biblioteki - physx, matlab, TinyXML (Styl: Podkeślenie)</t>
-  </si>
-  <si>
-    <r>
-      <t>a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(Sprawdź ortografię, gramatykę) </t>
-    </r>
   </si>
   <si>
     <r>
@@ -1322,13 +1175,174 @@
   </si>
   <si>
     <t>t. Tabele z kodem mają być przezroczyste</t>
+  </si>
+  <si>
+    <r>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sprawdź poprawność wielkości tekstu (głównie w tabelach i przypisach).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wybranie dobrej czcionki i ustawienie w odpowiednim miejscu: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>13.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tłumaczenie na angielski wstępu </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dodanie twardych spacji (ctrl+Shift+spacja) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>16.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sprawdź ortografie, gramatykę (końcowo, żeby nie było błędów)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Sprawdź ortografię, gramatykę) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W spisie treści wybierz tylko 3 poziomy)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1409,6 +1423,53 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1430,7 +1491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1461,6 +1522,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="10"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1756,10 +1832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:K83"/>
+  <dimension ref="C5:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1774,22 +1850,22 @@
   <sheetData>
     <row r="5" spans="3:11" ht="30">
       <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="K5" t="s">
         <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="3:11" ht="18.75">
@@ -1813,7 +1889,7 @@
     </row>
     <row r="9" spans="3:11">
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>0.3</v>
@@ -1827,7 +1903,7 @@
         <v>0.6</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1835,7 +1911,7 @@
     </row>
     <row r="10" spans="3:11">
       <c r="C10" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H10">
         <f>H9+IF(E10 = "", 0, E10)</f>
@@ -1844,16 +1920,16 @@
     </row>
     <row r="11" spans="3:11" ht="60">
       <c r="C11" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H83" si="0">H10+IF(E11 = "", 0, E11)</f>
+        <f t="shared" ref="H11:H84" si="0">H10+IF(E11 = "", 0, E11)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="3:11" ht="60">
       <c r="C12" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
@@ -1862,7 +1938,7 @@
     </row>
     <row r="13" spans="3:11">
       <c r="C13" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
@@ -1871,7 +1947,7 @@
     </row>
     <row r="14" spans="3:11">
       <c r="C14" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
@@ -1879,8 +1955,8 @@
       </c>
     </row>
     <row r="15" spans="3:11" ht="30">
-      <c r="C15" s="11" t="s">
-        <v>27</v>
+      <c r="C15" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
@@ -1889,7 +1965,7 @@
     </row>
     <row r="16" spans="3:11">
       <c r="C16" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
@@ -1897,8 +1973,8 @@
       </c>
     </row>
     <row r="17" spans="3:11">
-      <c r="C17" s="11" t="s">
-        <v>29</v>
+      <c r="C17" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
@@ -1907,12 +1983,12 @@
     </row>
     <row r="18" spans="3:11">
       <c r="C18" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="3:11">
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D19">
         <v>0.5</v>
@@ -1926,7 +2002,7 @@
         <v>1.6</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1934,7 +2010,7 @@
     </row>
     <row r="20" spans="3:11">
       <c r="C20" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="1"/>
@@ -1947,7 +2023,7 @@
     </row>
     <row r="21" spans="3:11">
       <c r="C21" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>0.5</v>
@@ -1963,7 +2039,7 @@
     </row>
     <row r="22" spans="3:11">
       <c r="C22" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1979,7 +2055,7 @@
     </row>
     <row r="23" spans="3:11">
       <c r="C23" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1995,7 +2071,7 @@
     </row>
     <row r="24" spans="3:11">
       <c r="C24" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
@@ -2004,7 +2080,7 @@
     </row>
     <row r="25" spans="3:11" ht="30">
       <c r="C25" s="12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="1"/>
@@ -2017,7 +2093,7 @@
     </row>
     <row r="26" spans="3:11" ht="45">
       <c r="C26" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
@@ -2026,7 +2102,7 @@
     </row>
     <row r="27" spans="3:11">
       <c r="C27" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
@@ -2035,7 +2111,7 @@
     </row>
     <row r="28" spans="3:11">
       <c r="C28" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
@@ -2044,7 +2120,7 @@
     </row>
     <row r="29" spans="3:11" ht="30">
       <c r="C29" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
@@ -2053,7 +2129,7 @@
     </row>
     <row r="30" spans="3:11" ht="30">
       <c r="C30" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
@@ -2062,7 +2138,7 @@
     </row>
     <row r="31" spans="3:11" ht="45">
       <c r="C31" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
@@ -2071,57 +2147,57 @@
     </row>
     <row r="32" spans="3:11" ht="30">
       <c r="C32" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="45">
       <c r="C33" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="30">
       <c r="C34" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="45">
       <c r="C35" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="3:8">
       <c r="C36" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="3:8">
       <c r="C37" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="3:8">
       <c r="C38" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="30">
       <c r="C39" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="3:8" ht="14.25" customHeight="1">
       <c r="C40" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="3:8" ht="14.25" customHeight="1">
       <c r="C41" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="3:8" ht="14.25" customHeight="1">
       <c r="C42" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="3:8">
@@ -2133,7 +2209,7 @@
     </row>
     <row r="44" spans="3:8">
       <c r="C44" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -2149,7 +2225,7 @@
     </row>
     <row r="45" spans="3:8">
       <c r="C45" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="1"/>
@@ -2162,7 +2238,7 @@
     </row>
     <row r="46" spans="3:8">
       <c r="C46" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D46">
         <v>1.5</v>
@@ -2178,7 +2254,7 @@
     </row>
     <row r="47" spans="3:8">
       <c r="C47" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="1"/>
@@ -2191,7 +2267,7 @@
     </row>
     <row r="48" spans="3:8">
       <c r="C48" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -2207,7 +2283,7 @@
     </row>
     <row r="49" spans="3:8">
       <c r="C49" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -2223,7 +2299,7 @@
     </row>
     <row r="50" spans="3:8">
       <c r="C50" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D50">
         <v>1.5</v>
@@ -2238,8 +2314,8 @@
       </c>
     </row>
     <row r="51" spans="3:8">
-      <c r="C51" s="7" t="s">
-        <v>59</v>
+      <c r="C51" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="1"/>
@@ -2251,8 +2327,8 @@
       </c>
     </row>
     <row r="52" spans="3:8">
-      <c r="C52" s="7" t="s">
-        <v>3</v>
+      <c r="C52" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="1"/>
@@ -2265,7 +2341,7 @@
     </row>
     <row r="53" spans="3:8">
       <c r="C53" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
@@ -2274,7 +2350,7 @@
     </row>
     <row r="54" spans="3:8">
       <c r="C54" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
@@ -2283,7 +2359,7 @@
     </row>
     <row r="55" spans="3:8">
       <c r="C55" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" ref="E55:E56" si="2">IF(D55 = "", "", 2*D55)</f>
@@ -2296,7 +2372,7 @@
     </row>
     <row r="56" spans="3:8">
       <c r="C56" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="2"/>
@@ -2309,7 +2385,7 @@
     </row>
     <row r="57" spans="3:8">
       <c r="C57" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="3:8">
@@ -2325,7 +2401,7 @@
     </row>
     <row r="59" spans="3:8" ht="18.75">
       <c r="C59" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="1"/>
@@ -2341,8 +2417,8 @@
       </c>
     </row>
     <row r="60" spans="3:8">
-      <c r="C60" s="5" t="s">
-        <v>10</v>
+      <c r="C60" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="D60">
         <v>0.3</v>
@@ -2358,7 +2434,7 @@
     </row>
     <row r="61" spans="3:8">
       <c r="C61" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="1"/>
@@ -2371,7 +2447,7 @@
     </row>
     <row r="62" spans="3:8">
       <c r="C62" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="1"/>
@@ -2384,7 +2460,7 @@
     </row>
     <row r="63" spans="3:8">
       <c r="C63" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="1"/>
@@ -2397,7 +2473,7 @@
     </row>
     <row r="64" spans="3:8">
       <c r="C64" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="1"/>
@@ -2417,7 +2493,7 @@
     </row>
     <row r="66" spans="3:8">
       <c r="C66" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D66">
         <v>0.5</v>
@@ -2433,7 +2509,7 @@
     </row>
     <row r="67" spans="3:8">
       <c r="C67" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="1"/>
@@ -2446,7 +2522,7 @@
     </row>
     <row r="68" spans="3:8">
       <c r="C68" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="1"/>
@@ -2459,7 +2535,7 @@
     </row>
     <row r="69" spans="3:8">
       <c r="C69" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="1"/>
@@ -2472,7 +2548,7 @@
     </row>
     <row r="70" spans="3:8">
       <c r="C70" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="1"/>
@@ -2485,7 +2561,7 @@
     </row>
     <row r="71" spans="3:8">
       <c r="C71" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="1"/>
@@ -2498,7 +2574,7 @@
     </row>
     <row r="72" spans="3:8">
       <c r="C72" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H72">
         <f t="shared" si="0"/>
@@ -2514,7 +2590,7 @@
     </row>
     <row r="74" spans="3:8">
       <c r="C74" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D74">
         <v>0.4</v>
@@ -2541,14 +2617,14 @@
     </row>
     <row r="76" spans="3:8" ht="18.75">
       <c r="C76" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F76">
-        <f>SUM(E77:E82)</f>
+        <f>SUM(E77:E83)</f>
         <v>4.2</v>
       </c>
       <c r="H76">
@@ -2558,7 +2634,7 @@
     </row>
     <row r="77" spans="3:8">
       <c r="C77" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D77">
         <v>0.6</v>
@@ -2573,8 +2649,8 @@
       </c>
     </row>
     <row r="78" spans="3:8">
-      <c r="C78" s="3" t="s">
-        <v>46</v>
+      <c r="C78" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="D78">
         <v>0.4</v>
@@ -2589,8 +2665,8 @@
       </c>
     </row>
     <row r="79" spans="3:8">
-      <c r="C79" s="3" t="s">
-        <v>13</v>
+      <c r="C79" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="D79">
         <v>0.5</v>
@@ -2606,7 +2682,7 @@
     </row>
     <row r="80" spans="3:8">
       <c r="C80" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D80">
         <v>0.1</v>
@@ -2621,8 +2697,8 @@
       </c>
     </row>
     <row r="81" spans="3:8">
-      <c r="C81" s="3" t="s">
-        <v>47</v>
+      <c r="C81" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="D81">
         <v>0.5</v>
@@ -2637,14 +2713,19 @@
       </c>
     </row>
     <row r="82" spans="3:8">
-      <c r="C82" s="4"/>
-      <c r="H82">
-        <f t="shared" si="0"/>
+      <c r="C82" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8">
+      <c r="C83" s="4"/>
+      <c r="H83">
+        <f>H81+IF(E83 = "", 0, E83)</f>
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="83" spans="3:8">
-      <c r="H83">
+    <row r="84" spans="3:8">
+      <c r="H84">
         <f t="shared" si="0"/>
         <v>37.200000000000003</v>
       </c>

--- a/CUDA/Resources/Jeszcze do zrobienia.xlsx
+++ b/CUDA/Resources/Jeszcze do zrobienia.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Rzeczy do zrobienia jeszcze (40 dni od 21.04.2010):</t>
   </si>
@@ -1335,6 +1335,22 @@
         <scheme val="minor"/>
       </rPr>
       <t>W spisie treści wybierz tylko 3 poziomy)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Zmień nawiasy bibliografii na kwadratowe.</t>
     </r>
   </si>
 </sst>
@@ -1832,10 +1848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:K84"/>
+  <dimension ref="C5:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1923,7 +1939,7 @@
         <v>21</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H84" si="0">H10+IF(E11 = "", 0, E11)</f>
+        <f t="shared" ref="H11:H85" si="0">H10+IF(E11 = "", 0, E11)</f>
         <v>0.6</v>
       </c>
     </row>
@@ -2624,7 +2640,7 @@
         <v/>
       </c>
       <c r="F76">
-        <f>SUM(E77:E83)</f>
+        <f>SUM(E77:E84)</f>
         <v>4.2</v>
       </c>
       <c r="H76">
@@ -2718,14 +2734,19 @@
       </c>
     </row>
     <row r="83" spans="3:8">
-      <c r="C83" s="4"/>
-      <c r="H83">
-        <f>H81+IF(E83 = "", 0, E83)</f>
+      <c r="C83" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8">
+      <c r="C84" s="4"/>
+      <c r="H84">
+        <f>H81+IF(E84 = "", 0, E84)</f>
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="84" spans="3:8">
-      <c r="H84">
+    <row r="85" spans="3:8">
+      <c r="H85">
         <f t="shared" si="0"/>
         <v>37.200000000000003</v>
       </c>

--- a/CUDA/Resources/Jeszcze do zrobienia.xlsx
+++ b/CUDA/Resources/Jeszcze do zrobienia.xlsx
@@ -11,11 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Rzeczy do zrobienia jeszcze (40 dni od 21.04.2010):</t>
   </si>
@@ -1352,6 +1353,20 @@
       </rPr>
       <t>Zmień nawiasy bibliografii na kwadratowe.</t>
     </r>
+  </si>
+  <si>
+    <t>u. Zmień wszystko na formę bezosobową</t>
+  </si>
+  <si>
+    <t>w. Sprawdź, czy tabele są na jedej stronie i czy nie ma za dużo wolnego miejsca z powodu dużych obrazków przeniesionych na następną stronę.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gdybym teraz miał za zadanie zrobić ten program jeszcze raz  - Trochę więcej pewności do wykonanej pracy. Jeżeli uważa Pan, że pewne części mogą być wykonane lepiej to bezpieczniej jest napisać:
+Wśród potencjalnych możliwości usprawnienia biblioteki istnieją …
+</t>
+  </si>
+  <si>
+    <t>Nie trzeba, jak wcześniej pisałem załączniki są bez numeru w spisie oraz podaje się je jako „Załacznik 1”, „Załacznik 2” itd. Do spisu idzie jedna pozycja ogólna „Załączniki”.</t>
   </si>
 </sst>
 </file>
@@ -1507,7 +1522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1553,6 +1568,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="10"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1848,10 +1866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:K85"/>
+  <dimension ref="C5:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1899,7 +1917,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <f>SUM(E9:E58)</f>
+        <f>SUM(E9:E62)</f>
         <v>30.6</v>
       </c>
     </row>
@@ -1939,7 +1957,7 @@
         <v>21</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H85" si="0">H10+IF(E11 = "", 0, E11)</f>
+        <f t="shared" ref="H11:H89" si="0">H10+IF(E11 = "", 0, E11)</f>
         <v>0.6</v>
       </c>
     </row>
@@ -2010,7 +2028,7 @@
         <v>0.5</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:E81" si="1">IF(D19 = "", "", 2*D19)</f>
+        <f t="shared" ref="E19:E85" si="1">IF(D19 = "", "", 2*D19)</f>
         <v>1</v>
       </c>
       <c r="H19">
@@ -2216,74 +2234,36 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="3:8">
-      <c r="C43" s="7"/>
-      <c r="H43">
-        <f>H31+IF(E43 = "", 0, E43)</f>
+    <row r="43" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C43" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C44" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C45" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C46" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8">
+      <c r="C47" s="7"/>
+      <c r="H47">
+        <f>H31+IF(E47 = "", 0, E47)</f>
         <v>8.6</v>
       </c>
     </row>
-    <row r="44" spans="3:8">
-      <c r="C44" s="5" t="s">
+    <row r="48" spans="3:8">
+      <c r="C48" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="0"/>
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8">
-      <c r="C45" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H45">
-        <f t="shared" si="0"/>
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8">
-      <c r="C46" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46">
-        <v>1.5</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="0"/>
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="3:8">
-      <c r="C47" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H47">
-        <f t="shared" si="0"/>
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="3:8">
-      <c r="C48" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -2294,28 +2274,25 @@
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>23.6</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="49" spans="3:8">
       <c r="C49" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>27.6</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="50" spans="3:8">
       <c r="C50" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D50">
         <v>1.5</v>
@@ -2326,12 +2303,12 @@
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>30.6</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="51" spans="3:8">
-      <c r="C51" s="17" t="s">
-        <v>78</v>
+      <c r="C51" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="1"/>
@@ -2339,59 +2316,76 @@
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>30.6</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="52" spans="3:8">
-      <c r="C52" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E52" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="C52" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>30.6</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="53" spans="3:8">
       <c r="C53" s="7" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="C54" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54">
+        <v>1.5</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="0"/>
         <v>30.6</v>
       </c>
     </row>
-    <row r="54" spans="3:8">
-      <c r="C54" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H54">
+    <row r="55" spans="3:8">
+      <c r="C55" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H55">
         <f t="shared" si="0"/>
         <v>30.6</v>
       </c>
     </row>
-    <row r="55" spans="3:8">
-      <c r="C55" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E55" t="str">
-        <f t="shared" ref="E55:E56" si="2">IF(D55 = "", "", 2*D55)</f>
-        <v/>
-      </c>
-      <c r="H55">
-        <f t="shared" si="0"/>
-        <v>30.6</v>
-      </c>
-    </row>
     <row r="56" spans="3:8">
-      <c r="C56" s="7" t="s">
-        <v>45</v>
+      <c r="C56" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H56">
@@ -2401,131 +2395,126 @@
     </row>
     <row r="57" spans="3:8">
       <c r="C57" s="7" t="s">
-        <v>46</v>
+        <v>17</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>30.6</v>
       </c>
     </row>
     <row r="58" spans="3:8">
-      <c r="C58" s="4"/>
-      <c r="E58" t="str">
-        <f t="shared" si="1"/>
+      <c r="C58" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8">
+      <c r="C59" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" t="str">
+        <f>IF(D59 = "", "", 2*D59)</f>
         <v/>
       </c>
-      <c r="H58">
-        <f>H56+IF(E58 = "", 0, E58)</f>
+      <c r="H59">
+        <f t="shared" si="0"/>
         <v>30.6</v>
       </c>
     </row>
-    <row r="59" spans="3:8" ht="18.75">
-      <c r="C59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" t="str">
-        <f t="shared" si="1"/>
+    <row r="60" spans="3:8">
+      <c r="C60" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" t="str">
+        <f>IF(D60 = "", "", 2*D60)</f>
         <v/>
       </c>
-      <c r="F59">
-        <f>SUM(E60:E75)</f>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="H59">
+      <c r="H60">
         <f t="shared" si="0"/>
         <v>30.6</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8">
-      <c r="C60" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D60">
-        <v>0.3</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="0"/>
-        <v>31.200000000000003</v>
       </c>
     </row>
     <row r="61" spans="3:8">
       <c r="C61" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8">
+      <c r="C62" s="4"/>
+      <c r="E62" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H62">
+        <f>H60+IF(E62 = "", 0, E62)</f>
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" ht="18.75">
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F63">
+        <f>SUM(E64:E79)</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8">
+      <c r="C64" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64">
+        <v>0.3</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>31.200000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8">
+      <c r="C65" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E61" t="str">
+      <c r="E65" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H61">
+      <c r="H65">
         <f t="shared" si="0"/>
         <v>31.200000000000003</v>
       </c>
     </row>
-    <row r="62" spans="3:8">
-      <c r="C62" s="7" t="s">
+    <row r="66" spans="3:8">
+      <c r="C66" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E62" t="str">
+      <c r="E66" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H62">
+      <c r="H66">
         <f t="shared" si="0"/>
         <v>31.200000000000003</v>
-      </c>
-    </row>
-    <row r="63" spans="3:8">
-      <c r="C63" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E63" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H63">
-        <f t="shared" si="0"/>
-        <v>31.200000000000003</v>
-      </c>
-    </row>
-    <row r="64" spans="3:8">
-      <c r="C64" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E64" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H64">
-        <f t="shared" si="0"/>
-        <v>31.200000000000003</v>
-      </c>
-    </row>
-    <row r="65" spans="3:8">
-      <c r="C65" s="7"/>
-      <c r="H65">
-        <f t="shared" si="0"/>
-        <v>31.200000000000003</v>
-      </c>
-    </row>
-    <row r="66" spans="3:8">
-      <c r="C66" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66">
-        <v>0.5</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <f t="shared" si="0"/>
-        <v>32.200000000000003</v>
       </c>
     </row>
     <row r="67" spans="3:8">
       <c r="C67" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="1"/>
@@ -2533,12 +2522,12 @@
       </c>
       <c r="H67">
         <f t="shared" si="0"/>
-        <v>32.200000000000003</v>
+        <v>31.200000000000003</v>
       </c>
     </row>
     <row r="68" spans="3:8">
       <c r="C68" s="7" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="1"/>
@@ -2546,29 +2535,26 @@
       </c>
       <c r="H68">
         <f t="shared" si="0"/>
-        <v>32.200000000000003</v>
+        <v>31.200000000000003</v>
       </c>
     </row>
     <row r="69" spans="3:8">
-      <c r="C69" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E69" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="C69" s="7"/>
       <c r="H69">
         <f t="shared" si="0"/>
-        <v>32.200000000000003</v>
+        <v>31.200000000000003</v>
       </c>
     </row>
     <row r="70" spans="3:8">
-      <c r="C70" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E70" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="C70" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70">
+        <v>0.5</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="H70">
         <f t="shared" si="0"/>
@@ -2577,7 +2563,7 @@
     </row>
     <row r="71" spans="3:8">
       <c r="C71" s="7" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="1"/>
@@ -2590,83 +2576,75 @@
     </row>
     <row r="72" spans="3:8">
       <c r="C72" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H72">
+        <f t="shared" si="0"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8">
+      <c r="C73" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H73">
+        <f t="shared" si="0"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8">
+      <c r="C74" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H74">
+        <f t="shared" si="0"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8">
+      <c r="C75" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H75">
+        <f t="shared" si="0"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8">
+      <c r="C76" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H72">
+      <c r="H76">
         <f t="shared" si="0"/>
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="73" spans="3:8">
-      <c r="C73" s="7"/>
-      <c r="H73">
+    <row r="77" spans="3:8">
+      <c r="C77" s="7"/>
+      <c r="H77">
         <f t="shared" si="0"/>
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="74" spans="3:8">
-      <c r="C74" s="5" t="s">
+    <row r="78" spans="3:8">
+      <c r="C78" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="D74">
-        <v>0.4</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="75" spans="3:8">
-      <c r="C75" s="4"/>
-      <c r="E75" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H75">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="3:8" ht="18.75">
-      <c r="C76" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F76">
-        <f>SUM(E77:E84)</f>
-        <v>4.2</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="77" spans="3:8">
-      <c r="C77" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77">
-        <v>0.6</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="1"/>
-        <v>1.2</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="0"/>
-        <v>34.200000000000003</v>
-      </c>
-    </row>
-    <row r="78" spans="3:8">
-      <c r="C78" s="16" t="s">
-        <v>75</v>
       </c>
       <c r="D78">
         <v>0.4</v>
@@ -2677,76 +2655,136 @@
       </c>
       <c r="H78">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="3:8">
-      <c r="C79" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D79">
-        <v>0.5</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="C79" s="4"/>
+      <c r="E79" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H79">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="80" spans="3:8">
-      <c r="C80" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80">
-        <v>0.1</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" ht="18.75">
+      <c r="C80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F80">
+        <f>SUM(E81:E88)</f>
+        <v>4.2</v>
       </c>
       <c r="H80">
         <f t="shared" si="0"/>
-        <v>36.200000000000003</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="3:8">
-      <c r="C81" s="16" t="s">
-        <v>77</v>
+      <c r="C81" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D81">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E81">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H81">
         <f t="shared" si="0"/>
-        <v>37.200000000000003</v>
+        <v>34.200000000000003</v>
       </c>
     </row>
     <row r="82" spans="3:8">
       <c r="C82" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="D82">
+        <v>0.4</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="3:8">
       <c r="C83" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D83">
+        <v>0.5</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8">
+      <c r="C84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84">
+        <v>0.1</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="0"/>
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8">
+      <c r="C85" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D85">
+        <v>0.5</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="0"/>
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8">
+      <c r="C86" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8">
+      <c r="C87" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="3:8">
-      <c r="C84" s="4"/>
-      <c r="H84">
-        <f>H81+IF(E84 = "", 0, E84)</f>
+    <row r="88" spans="3:8">
+      <c r="C88" s="4"/>
+      <c r="H88">
+        <f>H85+IF(E88 = "", 0, E88)</f>
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="85" spans="3:8">
-      <c r="H85">
+    <row r="89" spans="3:8">
+      <c r="H89">
         <f t="shared" si="0"/>
         <v>37.200000000000003</v>
       </c>

--- a/CUDA/Resources/Jeszcze do zrobienia.xlsx
+++ b/CUDA/Resources/Jeszcze do zrobienia.xlsx
@@ -11,12 +11,11 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
   <si>
     <t>Rzeczy do zrobienia jeszcze (40 dni od 21.04.2010):</t>
   </si>
@@ -1367,13 +1366,60 @@
   </si>
   <si>
     <t>Nie trzeba, jak wcześniej pisałem załączniki są bez numeru w spisie oraz podaje się je jako „Załacznik 1”, „Załacznik 2” itd. Do spisu idzie jedna pozycja ogólna „Załączniki”.</t>
+  </si>
+  <si>
+    <t>Pytania do W. Pietruszkiewicza</t>
+  </si>
+  <si>
+    <t>Jaka numeracja stron - po której stronie strony?</t>
+  </si>
+  <si>
+    <t>Odbierz indeks, zrób wpis z pracowni i w bibliotece</t>
+  </si>
+  <si>
+    <t>Zmniejsz przerwy między np. Tabelami a tekstem (mniejsza czcionka w pustej linii)</t>
+  </si>
+  <si>
+    <t>Gdybym teraz miał za zadanie zrobić ten program jeszcze raz  - Trochę więcej pewności do wykonanej pracy. Jeżeli uważa Pan, że pewne części mogą być wykonane lepiej to bezpieczniej jest napisać:
+Wśród potencjalnych możliwości usprawnienia biblioteki istnieją …</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Zmień nawiasy bibliografii na kwadratowe?</t>
+    </r>
+  </si>
+  <si>
+    <t>W czasie przeglądania</t>
+  </si>
+  <si>
+    <t>Sprawdź, czy numery rozdziałów w odnośnikach są poprawne</t>
+  </si>
+  <si>
+    <t>Przedtem</t>
+  </si>
+  <si>
+    <t>Na końcu</t>
+  </si>
+  <si>
+    <t>Bibliografia - podziel na książki i strony internetowe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1501,6 +1547,31 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1522,7 +1593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1572,6 +1643,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="10"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1866,10 +1955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:K89"/>
+  <dimension ref="C5:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117:C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2783,10 +2872,106 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="89" spans="3:8">
+    <row r="89" spans="3:8" ht="15.75">
+      <c r="C89" s="26" t="s">
+        <v>93</v>
+      </c>
       <c r="H89">
         <f t="shared" si="0"/>
         <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" ht="45">
+      <c r="C90" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8">
+      <c r="C95" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8">
+      <c r="C96" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" ht="30">
+      <c r="C99" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" s="19"/>
+    </row>
+    <row r="107" spans="3:3" ht="15.75">
+      <c r="C107" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" ht="30">
+      <c r="C113" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" ht="15.75">
+      <c r="C119" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/CUDA/Resources/Jeszcze do zrobienia.xlsx
+++ b/CUDA/Resources/Jeszcze do zrobienia.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
   <si>
     <t>Rzeczy do zrobienia jeszcze (40 dni od 21.04.2010):</t>
   </si>
@@ -1413,13 +1413,16 @@
   </si>
   <si>
     <t>Bibliografia - podziel na książki i strony internetowe</t>
+  </si>
+  <si>
+    <t>Później</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1572,6 +1575,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1593,7 +1605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1661,6 +1673,7 @@
       <alignment horizontal="left" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1958,7 +1971,7 @@
   <dimension ref="C5:K123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117:C124"/>
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2912,7 +2925,19 @@
       </c>
     </row>
     <row r="101" spans="3:3">
-      <c r="C101" s="19"/>
+      <c r="C101" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" ht="30">
+      <c r="C102" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" s="13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="107" spans="3:3" ht="15.75">
       <c r="C107" s="26" t="s">
@@ -2937,16 +2962,6 @@
     <row r="111" spans="3:3">
       <c r="C111" s="23" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3" ht="30">
-      <c r="C113" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3">
-      <c r="C114" s="13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="115" spans="3:3">

--- a/CUDA/Resources/Jeszcze do zrobienia.xlsx
+++ b/CUDA/Resources/Jeszcze do zrobienia.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
   <si>
     <t>Rzeczy do zrobienia jeszcze (40 dni od 21.04.2010):</t>
   </si>
@@ -1377,9 +1377,6 @@
     <t>Odbierz indeks, zrób wpis z pracowni i w bibliotece</t>
   </si>
   <si>
-    <t>Zmniejsz przerwy między np. Tabelami a tekstem (mniejsza czcionka w pustej linii)</t>
-  </si>
-  <si>
     <t>Gdybym teraz miał za zadanie zrobić ten program jeszcze raz  - Trochę więcej pewności do wykonanej pracy. Jeżeli uważa Pan, że pewne części mogą być wykonane lepiej to bezpieczniej jest napisać:
 Wśród potencjalnych możliwości usprawnienia biblioteki istnieją …</t>
   </si>
@@ -1401,9 +1398,6 @@
   </si>
   <si>
     <t>W czasie przeglądania</t>
-  </si>
-  <si>
-    <t>Sprawdź, czy numery rozdziałów w odnośnikach są poprawne</t>
   </si>
   <si>
     <t>Przedtem</t>
@@ -1971,7 +1965,7 @@
   <dimension ref="C5:K123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2887,7 +2881,7 @@
     </row>
     <row r="89" spans="3:8" ht="15.75">
       <c r="C89" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H89">
         <f t="shared" si="0"/>
@@ -2896,12 +2890,12 @@
     </row>
     <row r="90" spans="3:8" ht="45">
       <c r="C90" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="3:8">
       <c r="C95" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="3:8">
@@ -2910,14 +2904,10 @@
       </c>
     </row>
     <row r="97" spans="3:3">
-      <c r="C97" s="21" t="s">
-        <v>92</v>
-      </c>
+      <c r="C97" s="21"/>
     </row>
     <row r="98" spans="3:3">
-      <c r="C98" s="22" t="s">
-        <v>88</v>
-      </c>
+      <c r="C98" s="22"/>
     </row>
     <row r="99" spans="3:3" ht="30">
       <c r="C99" s="23" t="s">
@@ -2926,7 +2916,7 @@
     </row>
     <row r="101" spans="3:3">
       <c r="C101" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102" spans="3:3" ht="30">
@@ -2941,7 +2931,7 @@
     </row>
     <row r="107" spans="3:3" ht="15.75">
       <c r="C107" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="3:3">
@@ -2966,7 +2956,7 @@
     </row>
     <row r="115" spans="3:3">
       <c r="C115" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119" spans="3:3" ht="15.75">
@@ -2986,7 +2976,7 @@
     </row>
     <row r="123" spans="3:3">
       <c r="C123" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/CUDA/Resources/Jeszcze do zrobienia.xlsx
+++ b/CUDA/Resources/Jeszcze do zrobienia.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="95">
   <si>
     <t>Rzeczy do zrobienia jeszcze (40 dni od 21.04.2010):</t>
   </si>
@@ -1670,7 +1670,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1678,9 +1678,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1718,7 +1718,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1788,7 +1788,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1964,8 +1964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C5:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2899,9 +2899,7 @@
       </c>
     </row>
     <row r="96" spans="3:8">
-      <c r="C96" s="18" t="s">
-        <v>81</v>
-      </c>
+      <c r="C96" s="18"/>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" s="21"/>

--- a/CUDA/Resources/Jeszcze do zrobienia.xlsx
+++ b/CUDA/Resources/Jeszcze do zrobienia.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
   <si>
     <t>Rzeczy do zrobienia jeszcze (40 dni od 21.04.2010):</t>
   </si>
@@ -1375,10 +1375,6 @@
   </si>
   <si>
     <t>Odbierz indeks, zrób wpis z pracowni i w bibliotece</t>
-  </si>
-  <si>
-    <t>Gdybym teraz miał za zadanie zrobić ten program jeszcze raz  - Trochę więcej pewności do wykonanej pracy. Jeżeli uważa Pan, że pewne części mogą być wykonane lepiej to bezpieczniej jest napisać:
-Wśród potencjalnych możliwości usprawnienia biblioteki istnieją …</t>
   </si>
   <si>
     <r>
@@ -1670,7 +1666,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1678,9 +1674,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1718,7 +1714,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1788,7 +1784,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1964,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C5:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2881,21 +2877,19 @@
     </row>
     <row r="89" spans="3:8" ht="15.75">
       <c r="C89" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H89">
         <f t="shared" si="0"/>
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="90" spans="3:8" ht="45">
-      <c r="C90" s="23" t="s">
-        <v>88</v>
-      </c>
+    <row r="90" spans="3:8">
+      <c r="C90" s="23"/>
     </row>
     <row r="95" spans="3:8">
       <c r="C95" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="3:8">
@@ -2907,35 +2901,27 @@
     <row r="98" spans="3:3">
       <c r="C98" s="22"/>
     </row>
-    <row r="99" spans="3:3" ht="30">
-      <c r="C99" s="23" t="s">
-        <v>82</v>
-      </c>
+    <row r="99" spans="3:3">
+      <c r="C99" s="23"/>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" s="27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3" ht="30">
-      <c r="C102" s="20" t="s">
-        <v>24</v>
-      </c>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" s="20"/>
     </row>
     <row r="103" spans="3:3">
-      <c r="C103" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="C103" s="13"/>
     </row>
     <row r="107" spans="3:3" ht="15.75">
       <c r="C107" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="108" spans="3:3">
-      <c r="C108" s="14" t="s">
-        <v>73</v>
-      </c>
+      <c r="C108" s="14"/>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" s="22" t="s">
@@ -2954,7 +2940,7 @@
     </row>
     <row r="115" spans="3:3">
       <c r="C115" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119" spans="3:3" ht="15.75">
@@ -2974,7 +2960,7 @@
     </row>
     <row r="123" spans="3:3">
       <c r="C123" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
